--- a/InputData/plcy-schd/FoPITY/Fraction of Policy Implemented This Year.xlsx
+++ b/InputData/plcy-schd/FoPITY/Fraction of Policy Implemented This Year.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="13635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -625,11 +625,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151630592"/>
-        <c:axId val="151613440"/>
+        <c:axId val="166175104"/>
+        <c:axId val="166176640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151630592"/>
+        <c:axId val="166175104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,7 +639,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151613440"/>
+        <c:crossAx val="166176640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -647,7 +647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151613440"/>
+        <c:axId val="166176640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +658,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151630592"/>
+        <c:crossAx val="166175104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1005,14 +1005,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1020,108 +1020,108 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>76</v>
       </c>
@@ -1129,7 +1129,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>73</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>74</v>
       </c>
@@ -1149,7 +1149,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
         <v>75</v>
       </c>
@@ -1178,12 +1178,12 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -4185,52 +4185,67 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <f>(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <f t="shared" ref="D49" si="41">(COLUMN(C$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.13333333333333333</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <f t="shared" ref="E49" si="42">(COLUMN(D$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.2</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <f t="shared" ref="F49" si="43">(COLUMN(E$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.26666666666666666</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <f t="shared" ref="G49" si="44">(COLUMN(F$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <f t="shared" ref="H49" si="45">(COLUMN(G$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.4</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <f t="shared" ref="I49" si="46">(COLUMN(H$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <f t="shared" ref="J49" si="47">(COLUMN(I$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.53333333333333333</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <f t="shared" ref="K49" si="48">(COLUMN(J$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.6</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <f t="shared" ref="L49" si="49">(COLUMN(K$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <f t="shared" ref="M49" si="50">(COLUMN(L$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.73333333333333328</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <f t="shared" ref="N49" si="51">(COLUMN(M$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.8</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <f t="shared" ref="O49" si="52">(COLUMN(N$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.8666666666666667</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <f t="shared" ref="P49" si="53">(COLUMN(O$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.93333333333333335</v>
       </c>
       <c r="Q49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Q49" si="54">(COLUMN(P$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -4298,7 +4313,7 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -4366,7 +4381,7 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -4434,7 +4449,7 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -4502,7 +4517,7 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -4570,7 +4585,7 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -4638,7 +4653,7 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -4706,7 +4721,7 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -4774,7 +4789,7 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -4842,7 +4857,7 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>0</v>
       </c>

--- a/InputData/plcy-schd/FoPITY/Fraction of Policy Implemented This Year.xlsx
+++ b/InputData/plcy-schd/FoPITY/Fraction of Policy Implemented This Year.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">FoPITY!$E$51</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">FoPITY!$E$52</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>RnD CCS fuel use reduction</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>elec non BAU guaranteed dispatch</t>
+  </si>
+  <si>
+    <t>indst convert natural gas use</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FoPITY!$B$59:$Q$59</c:f>
+              <c:f>FoPITY!$B$60:$Q$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -625,11 +628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="166175104"/>
-        <c:axId val="166176640"/>
+        <c:axId val="154290048"/>
+        <c:axId val="154291584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166175104"/>
+        <c:axId val="154290048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,7 +642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166176640"/>
+        <c:crossAx val="154291584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -647,7 +650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166176640"/>
+        <c:axId val="154291584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166175104"/>
+        <c:crossAx val="154290048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -685,13 +688,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1005,14 +1008,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1020,108 +1023,108 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>76</v>
       </c>
@@ -1129,7 +1132,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>73</v>
       </c>
@@ -1139,7 +1142,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>74</v>
       </c>
@@ -1149,7 +1152,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
         <v>75</v>
       </c>
@@ -1169,7 +1172,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1178,12 +1181,12 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.7265625" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1561,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -1932,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -2204,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2325,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2499,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -2567,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -2620,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2673,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -2945,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -3081,9 +3084,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3149,9 +3152,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3217,9 +3220,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3285,9 +3288,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3353,9 +3356,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3421,9 +3424,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3489,9 +3492,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3557,9 +3560,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3625,561 +3628,561 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="36">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="37">(COLUMN(C$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="38">(COLUMN(D$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40" si="39">(COLUMN(E$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ref="G40" si="40">(COLUMN(F$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H40" si="41">(COLUMN(G$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40" si="42">(COLUMN(H$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ref="J40" si="43">(COLUMN(I$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ref="K40" si="44">(COLUMN(J$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.6</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ref="L40" si="45">(COLUMN(K$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ref="M40" si="46">(COLUMN(L$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="N40">
+        <f t="shared" ref="N40" si="47">(COLUMN(M$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.8</v>
+      </c>
+      <c r="O40">
+        <f t="shared" ref="O40" si="48">(COLUMN(N$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="P40">
+        <f t="shared" ref="P40" si="49">(COLUMN(O$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" ref="Q40" si="50">(COLUMN(P$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>28</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ref="C40:Q40" si="36">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:Q41" si="51">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="36"/>
+      <c r="D41">
+        <f t="shared" si="51"/>
         <v>0.13333333333333333</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="36"/>
+      <c r="E41">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="36"/>
+      <c r="F41">
+        <f t="shared" si="51"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="36"/>
+      <c r="G41">
+        <f t="shared" si="51"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="36"/>
+      <c r="H41">
+        <f t="shared" si="51"/>
         <v>0.4</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="36"/>
+      <c r="I41">
+        <f t="shared" si="51"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="36"/>
+      <c r="J41">
+        <f t="shared" si="51"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="K40">
-        <f t="shared" si="36"/>
+      <c r="K41">
+        <f t="shared" si="51"/>
         <v>0.6</v>
       </c>
-      <c r="L40">
-        <f t="shared" si="36"/>
+      <c r="L41">
+        <f t="shared" si="51"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M40">
-        <f t="shared" si="36"/>
+      <c r="M41">
+        <f t="shared" si="51"/>
         <v>0.73333333333333328</v>
       </c>
-      <c r="N40">
-        <f t="shared" si="36"/>
+      <c r="N41">
+        <f t="shared" si="51"/>
         <v>0.8</v>
       </c>
-      <c r="O40">
-        <f t="shared" si="36"/>
+      <c r="O41">
+        <f t="shared" si="51"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="P40">
-        <f t="shared" si="36"/>
+      <c r="P41">
+        <f t="shared" si="51"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="Q40">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="Q41">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>29</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ref="C41:Q41" si="37">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:Q42" si="52">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="37"/>
+      <c r="D42">
+        <f t="shared" si="52"/>
         <v>0.13333333333333333</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="37"/>
+      <c r="E42">
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="37"/>
+      <c r="F42">
+        <f t="shared" si="52"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="37"/>
+      <c r="G42">
+        <f t="shared" si="52"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="37"/>
+      <c r="H42">
+        <f t="shared" si="52"/>
         <v>0.4</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="37"/>
+      <c r="I42">
+        <f t="shared" si="52"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="37"/>
+      <c r="J42">
+        <f t="shared" si="52"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="K41">
-        <f t="shared" si="37"/>
+      <c r="K42">
+        <f t="shared" si="52"/>
         <v>0.6</v>
       </c>
-      <c r="L41">
-        <f t="shared" si="37"/>
+      <c r="L42">
+        <f t="shared" si="52"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M41">
-        <f t="shared" si="37"/>
+      <c r="M42">
+        <f t="shared" si="52"/>
         <v>0.73333333333333328</v>
       </c>
-      <c r="N41">
-        <f t="shared" si="37"/>
+      <c r="N42">
+        <f t="shared" si="52"/>
         <v>0.8</v>
       </c>
-      <c r="O41">
-        <f t="shared" si="37"/>
+      <c r="O42">
+        <f t="shared" si="52"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="P41">
-        <f t="shared" si="37"/>
+      <c r="P42">
+        <f t="shared" si="52"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="Q41">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="Q42">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>30</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ref="C42:Q42" si="38">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:Q43" si="53">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D42">
-        <f t="shared" si="38"/>
+      <c r="D43">
+        <f t="shared" si="53"/>
         <v>0.13333333333333333</v>
       </c>
-      <c r="E42">
-        <f t="shared" si="38"/>
+      <c r="E43">
+        <f t="shared" si="53"/>
         <v>0.2</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="38"/>
+      <c r="F43">
+        <f t="shared" si="53"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="38"/>
+      <c r="G43">
+        <f t="shared" si="53"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H42">
-        <f t="shared" si="38"/>
+      <c r="H43">
+        <f t="shared" si="53"/>
         <v>0.4</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="38"/>
+      <c r="I43">
+        <f t="shared" si="53"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="38"/>
+      <c r="J43">
+        <f t="shared" si="53"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="K42">
-        <f t="shared" si="38"/>
+      <c r="K43">
+        <f t="shared" si="53"/>
         <v>0.6</v>
       </c>
-      <c r="L42">
-        <f t="shared" si="38"/>
+      <c r="L43">
+        <f t="shared" si="53"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M42">
-        <f t="shared" si="38"/>
+      <c r="M43">
+        <f t="shared" si="53"/>
         <v>0.73333333333333328</v>
       </c>
-      <c r="N42">
-        <f t="shared" si="38"/>
+      <c r="N43">
+        <f t="shared" si="53"/>
         <v>0.8</v>
       </c>
-      <c r="O42">
-        <f t="shared" si="38"/>
+      <c r="O43">
+        <f t="shared" si="53"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="P42">
-        <f t="shared" si="38"/>
+      <c r="P43">
+        <f t="shared" si="53"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="Q42">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="Q43">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>31</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-      <c r="P43">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>32</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>33</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
         <f>(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D45">
-        <f t="shared" ref="D45:Q45" si="39">(COLUMN(C$1)-1)/COUNT($C$1:$S$1)</f>
+      <c r="D46">
+        <f t="shared" ref="D46:Q46" si="54">(COLUMN(C$1)-1)/COUNT($C$1:$S$1)</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="39"/>
+      <c r="E46">
+        <f t="shared" si="54"/>
         <v>0.2</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="39"/>
+      <c r="F46">
+        <f t="shared" si="54"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="39"/>
+      <c r="G46">
+        <f t="shared" si="54"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H45">
-        <f t="shared" si="39"/>
+      <c r="H46">
+        <f t="shared" si="54"/>
         <v>0.4</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="39"/>
+      <c r="I46">
+        <f t="shared" si="54"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="39"/>
+      <c r="J46">
+        <f t="shared" si="54"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="K45">
-        <f t="shared" si="39"/>
+      <c r="K46">
+        <f t="shared" si="54"/>
         <v>0.6</v>
       </c>
-      <c r="L45">
-        <f t="shared" si="39"/>
+      <c r="L46">
+        <f t="shared" si="54"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M45">
-        <f t="shared" si="39"/>
+      <c r="M46">
+        <f t="shared" si="54"/>
         <v>0.73333333333333328</v>
       </c>
-      <c r="N45">
-        <f t="shared" si="39"/>
+      <c r="N46">
+        <f t="shared" si="54"/>
         <v>0.8</v>
       </c>
-      <c r="O45">
-        <f t="shared" si="39"/>
+      <c r="O46">
+        <f t="shared" si="54"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="P45">
-        <f t="shared" si="39"/>
+      <c r="P46">
+        <f t="shared" si="54"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="Q45">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="Q46">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>77</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>72</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>71</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D48">
-        <f t="shared" ref="D48:Q48" si="40">(COLUMN(C$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="40"/>
-        <v>0.2</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="40"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="40"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="40"/>
-        <v>0.4</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="40"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="40"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="40"/>
-        <v>0.6</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="40"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="40"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="40"/>
-        <v>0.8</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="40"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="40"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>80</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4189,133 +4192,133 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49" si="41">(COLUMN(C$1)-1)/COUNT($C$1:$S$1)</f>
+        <f t="shared" ref="D49:Q49" si="55">(COLUMN(C$1)-1)/COUNT($C$1:$S$1)</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49" si="42">(COLUMN(D$1)-1)/COUNT($C$1:$S$1)</f>
+        <f t="shared" si="55"/>
         <v>0.2</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49" si="43">(COLUMN(E$1)-1)/COUNT($C$1:$S$1)</f>
+        <f t="shared" si="55"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="G49">
-        <f t="shared" ref="G49" si="44">(COLUMN(F$1)-1)/COUNT($C$1:$S$1)</f>
+        <f t="shared" si="55"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="H49">
-        <f t="shared" ref="H49" si="45">(COLUMN(G$1)-1)/COUNT($C$1:$S$1)</f>
+        <f t="shared" si="55"/>
         <v>0.4</v>
       </c>
       <c r="I49">
-        <f t="shared" ref="I49" si="46">(COLUMN(H$1)-1)/COUNT($C$1:$S$1)</f>
+        <f t="shared" si="55"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="J49">
-        <f t="shared" ref="J49" si="47">(COLUMN(I$1)-1)/COUNT($C$1:$S$1)</f>
+        <f t="shared" si="55"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="K49">
-        <f t="shared" ref="K49" si="48">(COLUMN(J$1)-1)/COUNT($C$1:$S$1)</f>
+        <f t="shared" si="55"/>
         <v>0.6</v>
       </c>
       <c r="L49">
-        <f t="shared" ref="L49" si="49">(COLUMN(K$1)-1)/COUNT($C$1:$S$1)</f>
+        <f t="shared" si="55"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="M49">
-        <f t="shared" ref="M49" si="50">(COLUMN(L$1)-1)/COUNT($C$1:$S$1)</f>
+        <f t="shared" si="55"/>
         <v>0.73333333333333328</v>
       </c>
       <c r="N49">
-        <f t="shared" ref="N49" si="51">(COLUMN(M$1)-1)/COUNT($C$1:$S$1)</f>
+        <f t="shared" si="55"/>
         <v>0.8</v>
       </c>
       <c r="O49">
-        <f t="shared" ref="O49" si="52">(COLUMN(N$1)-1)/COUNT($C$1:$S$1)</f>
+        <f t="shared" si="55"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="P49">
-        <f t="shared" ref="P49" si="53">(COLUMN(O$1)-1)/COUNT($C$1:$S$1)</f>
+        <f t="shared" si="55"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="Q49">
-        <f t="shared" ref="Q49" si="54">(COLUMN(P$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f>(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50" si="56">(COLUMN(C$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50" si="57">(COLUMN(D$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ref="F50" si="58">(COLUMN(E$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ref="G50" si="59">(COLUMN(F$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ref="H50" si="60">(COLUMN(G$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ref="I50" si="61">(COLUMN(H$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ref="J50" si="62">(COLUMN(I$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ref="K50" si="63">(COLUMN(J$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.6</v>
+      </c>
+      <c r="L50">
+        <f t="shared" ref="L50" si="64">(COLUMN(K$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M50">
+        <f t="shared" ref="M50" si="65">(COLUMN(L$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="N50">
+        <f t="shared" ref="N50" si="66">(COLUMN(M$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.8</v>
+      </c>
+      <c r="O50">
+        <f t="shared" ref="O50" si="67">(COLUMN(N$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="P50">
+        <f t="shared" ref="P50" si="68">(COLUMN(O$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" ref="Q50" si="69">(COLUMN(P$1)-1)/COUNT($C$1:$S$1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>34</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(About!$B$32)))</f>
-        <v>2.9839850904880734E-2</v>
-      </c>
-      <c r="D50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:D$1)+About!$B$32)))</f>
-        <v>7.7223627261625932E-2</v>
-      </c>
-      <c r="E50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:E$1)+About!$B$32)))</f>
-        <v>0.12134857461851567</v>
-      </c>
-      <c r="F50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:F$1)+About!$B$32)))</f>
-        <v>0.18570918323487076</v>
-      </c>
-      <c r="G50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:G$1)+About!$B$32)))</f>
-        <v>0.27378236695465502</v>
-      </c>
-      <c r="H50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:H$1)+About!$B$32)))</f>
-        <v>0.38433640083651205</v>
-      </c>
-      <c r="I50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:I$1)+About!$B$32)))</f>
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="J50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:J$1)+About!$B$32)))</f>
-        <v>0.63366359916348791</v>
-      </c>
-      <c r="K50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:K$1)+About!$B$32)))</f>
-        <v>0.74421763304534494</v>
-      </c>
-      <c r="L50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:L$1)+About!$B$32)))</f>
-        <v>0.83229081676512917</v>
-      </c>
-      <c r="M50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:M$1)+About!$B$32)))</f>
-        <v>0.89665142538148424</v>
-      </c>
-      <c r="N50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:N$1)+About!$B$32)))</f>
-        <v>0.94077637273837411</v>
-      </c>
-      <c r="O50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:O$1)+About!$B$32)))</f>
-        <v>0.96972046110523713</v>
-      </c>
-      <c r="P50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:P$1)+About!$B$32)))</f>
-        <v>0.98816014909511918</v>
-      </c>
-      <c r="Q50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:Q$1)+About!$B$32)))</f>
-        <v>0.99969003825859082</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>35</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4381,9 +4384,9 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4449,9 +4452,9 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4517,9 +4520,9 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4585,9 +4588,9 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4653,9 +4656,9 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4721,9 +4724,9 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4789,9 +4792,9 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4857,9 +4860,9 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4921,6 +4924,74 @@
         <v>0.98816014909511918</v>
       </c>
       <c r="Q59">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:Q$1)+About!$B$32)))</f>
+        <v>0.99969003825859082</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(About!$B$32)))</f>
+        <v>2.9839850904880734E-2</v>
+      </c>
+      <c r="D60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:D$1)+About!$B$32)))</f>
+        <v>7.7223627261625932E-2</v>
+      </c>
+      <c r="E60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:E$1)+About!$B$32)))</f>
+        <v>0.12134857461851567</v>
+      </c>
+      <c r="F60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:F$1)+About!$B$32)))</f>
+        <v>0.18570918323487076</v>
+      </c>
+      <c r="G60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:G$1)+About!$B$32)))</f>
+        <v>0.27378236695465502</v>
+      </c>
+      <c r="H60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:H$1)+About!$B$32)))</f>
+        <v>0.38433640083651205</v>
+      </c>
+      <c r="I60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:I$1)+About!$B$32)))</f>
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="J60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:J$1)+About!$B$32)))</f>
+        <v>0.63366359916348791</v>
+      </c>
+      <c r="K60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:K$1)+About!$B$32)))</f>
+        <v>0.74421763304534494</v>
+      </c>
+      <c r="L60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:L$1)+About!$B$32)))</f>
+        <v>0.83229081676512917</v>
+      </c>
+      <c r="M60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:M$1)+About!$B$32)))</f>
+        <v>0.89665142538148424</v>
+      </c>
+      <c r="N60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:N$1)+About!$B$32)))</f>
+        <v>0.94077637273837411</v>
+      </c>
+      <c r="O60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:O$1)+About!$B$32)))</f>
+        <v>0.96972046110523713</v>
+      </c>
+      <c r="P60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:P$1)+About!$B$32)))</f>
+        <v>0.98816014909511918</v>
+      </c>
+      <c r="Q60">
         <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:Q$1)+About!$B$32)))</f>
         <v>0.99969003825859082</v>
       </c>

--- a/InputData/plcy-schd/FoPITY/Fraction of Policy Implemented This Year.xlsx
+++ b/InputData/plcy-schd/FoPITY/Fraction of Policy Implemented This Year.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19430" windowHeight="11030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">FoPITY!$D$55</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">FoPITY!$D$57</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>RnD CCS fuel use reduction</t>
   </si>
@@ -342,6 +342,12 @@
   <si>
     <t>first model year.)</t>
   </si>
+  <si>
+    <t>land peatland restoration</t>
+  </si>
+  <si>
+    <t>land forest restoration</t>
+  </si>
 </sst>
 </file>
 
@@ -643,7 +649,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FoPITY!$B$63:$AJ$63</c:f>
+              <c:f>FoPITY!$B$65:$AJ$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -767,11 +773,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="26558464"/>
-        <c:axId val="26560000"/>
+        <c:axId val="180502528"/>
+        <c:axId val="180504064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="26558464"/>
+        <c:axId val="180502528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +787,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="26560000"/>
+        <c:crossAx val="180504064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -789,7 +795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26560000"/>
+        <c:axId val="180504064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,7 +806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="26558464"/>
+        <c:crossAx val="180502528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -959,7 +965,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FoPITY!$B$63:$AJ$63</c:f>
+              <c:f>FoPITY!$B$65:$AJ$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1083,11 +1089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="298372480"/>
-        <c:axId val="299492096"/>
+        <c:axId val="198870144"/>
+        <c:axId val="198871680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="298372480"/>
+        <c:axId val="198870144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,7 +1103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="299492096"/>
+        <c:crossAx val="198871680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1105,7 +1111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="299492096"/>
+        <c:axId val="198871680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,7 +1122,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="298372480"/>
+        <c:crossAx val="198870144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1176,13 +1182,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1496,14 +1502,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -1511,128 +1517,128 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>72</v>
       </c>
@@ -1640,7 +1646,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>69</v>
       </c>
@@ -1650,7 +1656,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>70</v>
       </c>
@@ -1660,7 +1666,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>71</v>
       </c>
@@ -1681,7 +1687,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AJ63"/>
+  <dimension ref="A1:AJ65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1690,12 +1696,12 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.7265625" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1805,7 +1811,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1950,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2060,442 +2066,442 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="B4:C6" si="1">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="1"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:S6" si="1">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="D4:S6" si="2">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:AI6" si="2">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="T4:AI6" si="3">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0.52941176470588236</v>
       </c>
       <c r="U4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ4">
-        <f t="shared" ref="AJ4:AJ6" si="3">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="AJ4:AJ6" si="4">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C5">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="1"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="T5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="1"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="T6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -2605,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2715,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2825,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3045,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3155,732 +3161,732 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>43</v>
       </c>
       <c r="B13">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="B13:C17" si="5">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C13">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="5"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:S17" si="4">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="D13:S17" si="6">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13:AI17" si="5">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="T13:AI17" si="7">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0.52941176470588236</v>
       </c>
       <c r="U13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ13">
-        <f t="shared" ref="AJ13:AJ17" si="6">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="AJ13:AJ17" si="8">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>74</v>
       </c>
       <c r="B14">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C14">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="5"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="T14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>75</v>
       </c>
       <c r="B15">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C15">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="5"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="T15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>79</v>
       </c>
       <c r="B16">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C16">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="5"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="T16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>80</v>
       </c>
       <c r="B17">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C17">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="5"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="T17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -3990,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -4101,7 +4107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -4212,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -4322,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -4335,139 +4341,139 @@
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:AJ22" si="7">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="D22:AJ22" si="9">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="T22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -4577,7 +4583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -4687,7 +4693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -4700,139 +4706,139 @@
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:AJ25" si="8">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="D25:AJ25" si="10">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="T25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -4942,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -5052,2617 +5058,2617 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>78</v>
       </c>
       <c r="B28">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="B28:C45" si="11">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C28">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:S45" si="9">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="D28:S43" si="12">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="T28">
-        <f t="shared" ref="T28:AI45" si="10">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="T28:AI43" si="13">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0.52941176470588236</v>
       </c>
       <c r="U28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ28">
-        <f t="shared" ref="AJ28:AJ45" si="11">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="AJ28:AJ45" si="14">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>18</v>
       </c>
       <c r="B29">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C29">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="T29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>19</v>
       </c>
       <c r="B30">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C30">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="T30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>20</v>
       </c>
       <c r="B31">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C31">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="T31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>21</v>
       </c>
       <c r="B32">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C32">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="T32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>22</v>
       </c>
       <c r="B33">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C33">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="T33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>64</v>
       </c>
       <c r="B34">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C34">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="T34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>65</v>
       </c>
       <c r="B35">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C35">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="T35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>66</v>
       </c>
       <c r="B36">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C36">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="T36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>23</v>
       </c>
       <c r="B37">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C37">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="T37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
       <c r="B38">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C38">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="T38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
       <c r="B39">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C39">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="T39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
       <c r="B40">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C40">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="T40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
       <c r="B41">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C41">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="T41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>82</v>
       </c>
       <c r="B42">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C42">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="T42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
       <c r="B43">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C43">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S43">
-        <f t="shared" ref="S43:AH45" si="12">(COLUMN(R$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="S43:AH45" si="15">(COLUMN(R$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0.5</v>
       </c>
       <c r="T43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI43">
-        <f t="shared" ref="AI43:AI45" si="13">(COLUMN(AH$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="AI43:AI45" si="16">(COLUMN(AH$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>29</v>
       </c>
       <c r="B44">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C44">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D44">
-        <f t="shared" ref="D44:R45" si="14">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="D44:R45" si="17">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E44">
+        <f t="shared" si="17"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="17"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="17"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="17"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="17"/>
+        <v>0.20588235294117646</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="17"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="17"/>
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="17"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="17"/>
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="17"/>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="17"/>
+        <v>0.38235294117647056</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="17"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="17"/>
+        <v>0.44117647058823528</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="17"/>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="15"/>
+        <v>0.5</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="15"/>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="15"/>
+        <v>0.55882352941176472</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="15"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="15"/>
+        <v>0.61764705882352944</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="15"/>
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="15"/>
+        <v>0.67647058823529416</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="15"/>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="15"/>
+        <v>0.73529411764705888</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="15"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="15"/>
+        <v>0.79411764705882348</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="15"/>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="15"/>
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="15"/>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="15"/>
+        <v>0.91176470588235292</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="15"/>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="AI44">
+        <f t="shared" si="16"/>
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="AJ44">
         <f t="shared" si="14"/>
-        <v>8.8235294117647065E-2</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="14"/>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="14"/>
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="14"/>
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="14"/>
-        <v>0.20588235294117646</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="14"/>
-        <v>0.23529411764705882</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="14"/>
-        <v>0.26470588235294118</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="14"/>
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="14"/>
-        <v>0.3235294117647059</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="14"/>
-        <v>0.35294117647058826</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="14"/>
-        <v>0.38235294117647056</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="14"/>
-        <v>0.41176470588235292</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="14"/>
-        <v>0.44117647058823528</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="14"/>
-        <v>0.47058823529411764</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="12"/>
-        <v>0.52941176470588236</v>
-      </c>
-      <c r="U44">
-        <f t="shared" si="12"/>
-        <v>0.55882352941176472</v>
-      </c>
-      <c r="V44">
-        <f t="shared" si="12"/>
-        <v>0.58823529411764708</v>
-      </c>
-      <c r="W44">
-        <f t="shared" si="12"/>
-        <v>0.61764705882352944</v>
-      </c>
-      <c r="X44">
-        <f t="shared" si="12"/>
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="Y44">
-        <f t="shared" si="12"/>
-        <v>0.67647058823529416</v>
-      </c>
-      <c r="Z44">
-        <f t="shared" si="12"/>
-        <v>0.70588235294117652</v>
-      </c>
-      <c r="AA44">
-        <f t="shared" si="12"/>
-        <v>0.73529411764705888</v>
-      </c>
-      <c r="AB44">
-        <f t="shared" si="12"/>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="AC44">
-        <f t="shared" si="12"/>
-        <v>0.79411764705882348</v>
-      </c>
-      <c r="AD44">
-        <f t="shared" si="12"/>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="AE44">
-        <f t="shared" si="12"/>
-        <v>0.8529411764705882</v>
-      </c>
-      <c r="AF44">
-        <f t="shared" si="12"/>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="AG44">
-        <f t="shared" si="12"/>
-        <v>0.91176470588235292</v>
-      </c>
-      <c r="AH44">
-        <f t="shared" si="12"/>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="AI44">
-        <f t="shared" si="13"/>
-        <v>0.97058823529411764</v>
-      </c>
-      <c r="AJ44">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
       <c r="B45">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C45">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="11"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D45">
+        <f t="shared" si="17"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="17"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="17"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="17"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="17"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="17"/>
+        <v>0.20588235294117646</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="17"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="17"/>
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="17"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="17"/>
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="17"/>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="17"/>
+        <v>0.38235294117647056</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="17"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="17"/>
+        <v>0.44117647058823528</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="17"/>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="15"/>
+        <v>0.5</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="15"/>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="15"/>
+        <v>0.55882352941176472</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="15"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="15"/>
+        <v>0.61764705882352944</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="15"/>
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="15"/>
+        <v>0.67647058823529416</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="15"/>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="15"/>
+        <v>0.73529411764705888</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="15"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="15"/>
+        <v>0.79411764705882348</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="15"/>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="15"/>
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="15"/>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="15"/>
+        <v>0.91176470588235292</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="15"/>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="AI45">
+        <f t="shared" si="16"/>
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="AJ45">
         <f t="shared" si="14"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="14"/>
-        <v>8.8235294117647065E-2</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="14"/>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="14"/>
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="14"/>
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="14"/>
-        <v>0.20588235294117646</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="14"/>
-        <v>0.23529411764705882</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="14"/>
-        <v>0.26470588235294118</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="14"/>
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="14"/>
-        <v>0.3235294117647059</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="14"/>
-        <v>0.35294117647058826</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="14"/>
-        <v>0.38235294117647056</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="14"/>
-        <v>0.41176470588235292</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="14"/>
-        <v>0.44117647058823528</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="14"/>
-        <v>0.47058823529411764</v>
-      </c>
-      <c r="S45">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-      <c r="T45">
-        <f t="shared" si="12"/>
-        <v>0.52941176470588236</v>
-      </c>
-      <c r="U45">
-        <f t="shared" si="12"/>
-        <v>0.55882352941176472</v>
-      </c>
-      <c r="V45">
-        <f t="shared" si="12"/>
-        <v>0.58823529411764708</v>
-      </c>
-      <c r="W45">
-        <f t="shared" si="12"/>
-        <v>0.61764705882352944</v>
-      </c>
-      <c r="X45">
-        <f t="shared" si="12"/>
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="Y45">
-        <f t="shared" si="12"/>
-        <v>0.67647058823529416</v>
-      </c>
-      <c r="Z45">
-        <f t="shared" si="12"/>
-        <v>0.70588235294117652</v>
-      </c>
-      <c r="AA45">
-        <f t="shared" si="12"/>
-        <v>0.73529411764705888</v>
-      </c>
-      <c r="AB45">
-        <f t="shared" si="12"/>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="AC45">
-        <f t="shared" si="12"/>
-        <v>0.79411764705882348</v>
-      </c>
-      <c r="AD45">
-        <f t="shared" si="12"/>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="AE45">
-        <f t="shared" si="12"/>
-        <v>0.8529411764705882</v>
-      </c>
-      <c r="AF45">
-        <f t="shared" si="12"/>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="AG45">
-        <f t="shared" si="12"/>
-        <v>0.91176470588235292</v>
-      </c>
-      <c r="AH45">
-        <f t="shared" si="12"/>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="AI45">
-        <f t="shared" si="13"/>
-        <v>0.97058823529411764</v>
-      </c>
-      <c r="AJ45">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -7772,7 +7778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -7882,7 +7888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -7895,139 +7901,139 @@
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48:S49" si="15">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="D48:S51" si="18">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
       <c r="T48">
-        <f t="shared" ref="T48:AI49" si="16">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="T48:AI51" si="19">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0.52941176470588236</v>
       </c>
       <c r="U48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ48">
-        <f t="shared" ref="AJ48:AJ49" si="17">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="AJ48:AJ51" si="20">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -8040,359 +8046,429 @@
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
       <c r="T49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>73</v>
       </c>
       <c r="B50">
+        <f t="shared" ref="B50:C50" si="21">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.14705882352941177</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.20588235294117646</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.23529411764705882</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.26470588235294118</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.29411764705882354</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.3235294117647059</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.35294117647058826</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.38235294117647056</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.41176470588235292</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.44117647058823528</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.5</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.52941176470588236</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.55882352941176472</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.58823529411764708</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.61764705882352944</v>
       </c>
       <c r="X50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.67647058823529416</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AA50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.73529411764705888</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.76470588235294112</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.79411764705882348</v>
       </c>
       <c r="AD50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AE50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AF50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.88235294117647056</v>
       </c>
       <c r="AG50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.91176470588235292</v>
       </c>
       <c r="AH50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.97058823529411764</v>
       </c>
       <c r="AJ50">
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>68</v>
       </c>
       <c r="B51">
+        <f t="shared" ref="B51:C51" si="22">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.14705882352941177</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.20588235294117646</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.23529411764705882</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.26470588235294118</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.29411764705882354</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.3235294117647059</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.35294117647058826</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.38235294117647056</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.41176470588235292</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.44117647058823528</v>
       </c>
       <c r="R51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S51">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0.5</v>
       </c>
       <c r="T51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.52941176470588236</v>
       </c>
       <c r="U51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.55882352941176472</v>
       </c>
       <c r="V51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.58823529411764708</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.61764705882352944</v>
       </c>
       <c r="X51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.67647058823529416</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AA51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.73529411764705888</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.76470588235294112</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.79411764705882348</v>
       </c>
       <c r="AD51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AE51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AF51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.88235294117647056</v>
       </c>
       <c r="AG51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.91176470588235292</v>
       </c>
       <c r="AH51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.97058823529411764</v>
       </c>
       <c r="AJ51">
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -8405,139 +8481,139 @@
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52:S53" si="18">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="D52:S53" si="23">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="T52">
-        <f t="shared" ref="T52:AI53" si="19">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="T52:AI53" si="24">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0.52941176470588236</v>
       </c>
       <c r="U52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ52">
-        <f t="shared" ref="AJ52:AJ53" si="20">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="AJ52:AJ53" si="25">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -8550,429 +8626,361 @@
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="T53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:C$1)+About!$B$37)))</f>
-        <v>1.098694263059318E-2</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:D$1)+About!$B$37)))</f>
-        <v>1.4774031693273055E-2</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:E$1)+About!$B$37)))</f>
-        <v>1.984030573407751E-2</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:F$1)+About!$B$37)))</f>
-        <v>2.6596993576865863E-2</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:G$1)+About!$B$37)))</f>
-        <v>3.5571189272636181E-2</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:H$1)+About!$B$37)))</f>
-        <v>4.7425873177566781E-2</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:I$1)+About!$B$37)))</f>
-        <v>6.2973356056996513E-2</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:J$1)+About!$B$37)))</f>
-        <v>8.317269649392238E-2</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:K$1)+About!$B$37)))</f>
-        <v>0.10909682119561293</v>
+        <v>1</v>
       </c>
       <c r="L54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:L$1)+About!$B$37)))</f>
-        <v>0.14185106490048782</v>
+        <v>1</v>
       </c>
       <c r="M54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:M$1)+About!$B$37)))</f>
-        <v>0.18242552380635635</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:N$1)+About!$B$37)))</f>
-        <v>0.23147521650098238</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:O$1)+About!$B$37)))</f>
-        <v>0.28905049737499605</v>
+        <v>1</v>
       </c>
       <c r="P54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:P$1)+About!$B$37)))</f>
-        <v>0.35434369377420455</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Q$1)+About!$B$37)))</f>
-        <v>0.42555748318834102</v>
+        <v>1</v>
       </c>
       <c r="R54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:R$1)+About!$B$37)))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:S$1)+About!$B$37)))</f>
-        <v>0.57444251681165903</v>
+        <v>1</v>
       </c>
       <c r="T54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:T$1)+About!$B$37)))</f>
-        <v>0.6456563062257954</v>
+        <v>1</v>
       </c>
       <c r="U54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:U$1)+About!$B$37)))</f>
-        <v>0.71094950262500389</v>
+        <v>1</v>
       </c>
       <c r="V54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:V$1)+About!$B$37)))</f>
-        <v>0.76852478349901754</v>
+        <v>1</v>
       </c>
       <c r="W54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:W$1)+About!$B$37)))</f>
-        <v>0.81757447619364365</v>
+        <v>1</v>
       </c>
       <c r="X54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:X$1)+About!$B$37)))</f>
-        <v>0.85814893509951229</v>
+        <v>1</v>
       </c>
       <c r="Y54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Y$1)+About!$B$37)))</f>
-        <v>0.89090317880438707</v>
+        <v>1</v>
       </c>
       <c r="Z54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Z$1)+About!$B$37)))</f>
-        <v>0.91682730350607766</v>
+        <v>1</v>
       </c>
       <c r="AA54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AA$1)+About!$B$37)))</f>
-        <v>0.9370266439430035</v>
+        <v>1</v>
       </c>
       <c r="AB54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AB$1)+About!$B$37)))</f>
-        <v>0.95257412682243336</v>
+        <v>1</v>
       </c>
       <c r="AC54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AC$1)+About!$B$37)))</f>
-        <v>0.96442881072736386</v>
+        <v>1</v>
       </c>
       <c r="AD54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AD$1)+About!$B$37)))</f>
-        <v>0.97340300642313404</v>
+        <v>1</v>
       </c>
       <c r="AE54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AE$1)+About!$B$37)))</f>
-        <v>0.98015969426592253</v>
+        <v>1</v>
       </c>
       <c r="AF54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AF$1)+About!$B$37)))</f>
-        <v>0.98522596830672693</v>
+        <v>1</v>
       </c>
       <c r="AG54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AG$1)+About!$B$37)))</f>
-        <v>0.98901305736940681</v>
+        <v>1</v>
       </c>
       <c r="AH54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AH$1)+About!$B$37)))</f>
-        <v>0.99183742884684012</v>
+        <v>1</v>
       </c>
       <c r="AI54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AI$1)+About!$B$37)))</f>
-        <v>0.99394019850841575</v>
+        <v>1</v>
       </c>
       <c r="AJ54">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AJ$1)+About!$B$37)))</f>
-        <v>0.99550372683905886</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:C$1)+About!$B$37)))</f>
-        <v>1.098694263059318E-2</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:D$1)+About!$B$37)))</f>
-        <v>1.4774031693273055E-2</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:E$1)+About!$B$37)))</f>
-        <v>1.984030573407751E-2</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:F$1)+About!$B$37)))</f>
-        <v>2.6596993576865863E-2</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:G$1)+About!$B$37)))</f>
-        <v>3.5571189272636181E-2</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:H$1)+About!$B$37)))</f>
-        <v>4.7425873177566781E-2</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:I$1)+About!$B$37)))</f>
-        <v>6.2973356056996513E-2</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:J$1)+About!$B$37)))</f>
-        <v>8.317269649392238E-2</v>
+        <v>1</v>
       </c>
       <c r="K55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:K$1)+About!$B$37)))</f>
-        <v>0.10909682119561293</v>
+        <v>1</v>
       </c>
       <c r="L55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:L$1)+About!$B$37)))</f>
-        <v>0.14185106490048782</v>
+        <v>1</v>
       </c>
       <c r="M55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:M$1)+About!$B$37)))</f>
-        <v>0.18242552380635635</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:N$1)+About!$B$37)))</f>
-        <v>0.23147521650098238</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:O$1)+About!$B$37)))</f>
-        <v>0.28905049737499605</v>
+        <v>1</v>
       </c>
       <c r="P55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:P$1)+About!$B$37)))</f>
-        <v>0.35434369377420455</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Q$1)+About!$B$37)))</f>
-        <v>0.42555748318834102</v>
+        <v>1</v>
       </c>
       <c r="R55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:R$1)+About!$B$37)))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:S$1)+About!$B$37)))</f>
-        <v>0.57444251681165903</v>
+        <v>1</v>
       </c>
       <c r="T55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:T$1)+About!$B$37)))</f>
-        <v>0.6456563062257954</v>
+        <v>1</v>
       </c>
       <c r="U55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:U$1)+About!$B$37)))</f>
-        <v>0.71094950262500389</v>
+        <v>1</v>
       </c>
       <c r="V55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:V$1)+About!$B$37)))</f>
-        <v>0.76852478349901754</v>
+        <v>1</v>
       </c>
       <c r="W55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:W$1)+About!$B$37)))</f>
-        <v>0.81757447619364365</v>
+        <v>1</v>
       </c>
       <c r="X55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:X$1)+About!$B$37)))</f>
-        <v>0.85814893509951229</v>
+        <v>1</v>
       </c>
       <c r="Y55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Y$1)+About!$B$37)))</f>
-        <v>0.89090317880438707</v>
+        <v>1</v>
       </c>
       <c r="Z55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Z$1)+About!$B$37)))</f>
-        <v>0.91682730350607766</v>
+        <v>1</v>
       </c>
       <c r="AA55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AA$1)+About!$B$37)))</f>
-        <v>0.9370266439430035</v>
+        <v>1</v>
       </c>
       <c r="AB55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AB$1)+About!$B$37)))</f>
-        <v>0.95257412682243336</v>
+        <v>1</v>
       </c>
       <c r="AC55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AC$1)+About!$B$37)))</f>
-        <v>0.96442881072736386</v>
+        <v>1</v>
       </c>
       <c r="AD55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AD$1)+About!$B$37)))</f>
-        <v>0.97340300642313404</v>
+        <v>1</v>
       </c>
       <c r="AE55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AE$1)+About!$B$37)))</f>
-        <v>0.98015969426592253</v>
+        <v>1</v>
       </c>
       <c r="AF55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AF$1)+About!$B$37)))</f>
-        <v>0.98522596830672693</v>
+        <v>1</v>
       </c>
       <c r="AG55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AG$1)+About!$B$37)))</f>
-        <v>0.98901305736940681</v>
+        <v>1</v>
       </c>
       <c r="AH55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AH$1)+About!$B$37)))</f>
-        <v>0.99183742884684012</v>
+        <v>1</v>
       </c>
       <c r="AI55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AI$1)+About!$B$37)))</f>
-        <v>0.99394019850841575</v>
+        <v>1</v>
       </c>
       <c r="AJ55">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AJ$1)+About!$B$37)))</f>
-        <v>0.99550372683905886</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -9114,9 +9122,9 @@
         <v>0.99550372683905886</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -9258,9 +9266,9 @@
         <v>0.99550372683905886</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -9402,9 +9410,9 @@
         <v>0.99550372683905886</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -9546,9 +9554,9 @@
         <v>0.99550372683905886</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -9690,9 +9698,9 @@
         <v>0.99550372683905886</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -9834,9 +9842,9 @@
         <v>0.99550372683905886</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -9978,9 +9986,9 @@
         <v>0.99550372683905886</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -10118,6 +10126,294 @@
         <v>0.99394019850841575</v>
       </c>
       <c r="AJ63">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AJ$1)+About!$B$37)))</f>
+        <v>0.99550372683905886</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:C$1)+About!$B$37)))</f>
+        <v>1.098694263059318E-2</v>
+      </c>
+      <c r="D64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:D$1)+About!$B$37)))</f>
+        <v>1.4774031693273055E-2</v>
+      </c>
+      <c r="E64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:E$1)+About!$B$37)))</f>
+        <v>1.984030573407751E-2</v>
+      </c>
+      <c r="F64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:F$1)+About!$B$37)))</f>
+        <v>2.6596993576865863E-2</v>
+      </c>
+      <c r="G64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:G$1)+About!$B$37)))</f>
+        <v>3.5571189272636181E-2</v>
+      </c>
+      <c r="H64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:H$1)+About!$B$37)))</f>
+        <v>4.7425873177566781E-2</v>
+      </c>
+      <c r="I64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:I$1)+About!$B$37)))</f>
+        <v>6.2973356056996513E-2</v>
+      </c>
+      <c r="J64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:J$1)+About!$B$37)))</f>
+        <v>8.317269649392238E-2</v>
+      </c>
+      <c r="K64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:K$1)+About!$B$37)))</f>
+        <v>0.10909682119561293</v>
+      </c>
+      <c r="L64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:L$1)+About!$B$37)))</f>
+        <v>0.14185106490048782</v>
+      </c>
+      <c r="M64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:M$1)+About!$B$37)))</f>
+        <v>0.18242552380635635</v>
+      </c>
+      <c r="N64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:N$1)+About!$B$37)))</f>
+        <v>0.23147521650098238</v>
+      </c>
+      <c r="O64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:O$1)+About!$B$37)))</f>
+        <v>0.28905049737499605</v>
+      </c>
+      <c r="P64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:P$1)+About!$B$37)))</f>
+        <v>0.35434369377420455</v>
+      </c>
+      <c r="Q64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Q$1)+About!$B$37)))</f>
+        <v>0.42555748318834102</v>
+      </c>
+      <c r="R64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:R$1)+About!$B$37)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="S64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:S$1)+About!$B$37)))</f>
+        <v>0.57444251681165903</v>
+      </c>
+      <c r="T64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:T$1)+About!$B$37)))</f>
+        <v>0.6456563062257954</v>
+      </c>
+      <c r="U64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:U$1)+About!$B$37)))</f>
+        <v>0.71094950262500389</v>
+      </c>
+      <c r="V64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:V$1)+About!$B$37)))</f>
+        <v>0.76852478349901754</v>
+      </c>
+      <c r="W64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:W$1)+About!$B$37)))</f>
+        <v>0.81757447619364365</v>
+      </c>
+      <c r="X64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:X$1)+About!$B$37)))</f>
+        <v>0.85814893509951229</v>
+      </c>
+      <c r="Y64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Y$1)+About!$B$37)))</f>
+        <v>0.89090317880438707</v>
+      </c>
+      <c r="Z64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Z$1)+About!$B$37)))</f>
+        <v>0.91682730350607766</v>
+      </c>
+      <c r="AA64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AA$1)+About!$B$37)))</f>
+        <v>0.9370266439430035</v>
+      </c>
+      <c r="AB64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AB$1)+About!$B$37)))</f>
+        <v>0.95257412682243336</v>
+      </c>
+      <c r="AC64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AC$1)+About!$B$37)))</f>
+        <v>0.96442881072736386</v>
+      </c>
+      <c r="AD64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AD$1)+About!$B$37)))</f>
+        <v>0.97340300642313404</v>
+      </c>
+      <c r="AE64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AE$1)+About!$B$37)))</f>
+        <v>0.98015969426592253</v>
+      </c>
+      <c r="AF64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AF$1)+About!$B$37)))</f>
+        <v>0.98522596830672693</v>
+      </c>
+      <c r="AG64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AG$1)+About!$B$37)))</f>
+        <v>0.98901305736940681</v>
+      </c>
+      <c r="AH64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AH$1)+About!$B$37)))</f>
+        <v>0.99183742884684012</v>
+      </c>
+      <c r="AI64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AI$1)+About!$B$37)))</f>
+        <v>0.99394019850841575</v>
+      </c>
+      <c r="AJ64">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AJ$1)+About!$B$37)))</f>
+        <v>0.99550372683905886</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:C$1)+About!$B$37)))</f>
+        <v>1.098694263059318E-2</v>
+      </c>
+      <c r="D65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:D$1)+About!$B$37)))</f>
+        <v>1.4774031693273055E-2</v>
+      </c>
+      <c r="E65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:E$1)+About!$B$37)))</f>
+        <v>1.984030573407751E-2</v>
+      </c>
+      <c r="F65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:F$1)+About!$B$37)))</f>
+        <v>2.6596993576865863E-2</v>
+      </c>
+      <c r="G65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:G$1)+About!$B$37)))</f>
+        <v>3.5571189272636181E-2</v>
+      </c>
+      <c r="H65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:H$1)+About!$B$37)))</f>
+        <v>4.7425873177566781E-2</v>
+      </c>
+      <c r="I65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:I$1)+About!$B$37)))</f>
+        <v>6.2973356056996513E-2</v>
+      </c>
+      <c r="J65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:J$1)+About!$B$37)))</f>
+        <v>8.317269649392238E-2</v>
+      </c>
+      <c r="K65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:K$1)+About!$B$37)))</f>
+        <v>0.10909682119561293</v>
+      </c>
+      <c r="L65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:L$1)+About!$B$37)))</f>
+        <v>0.14185106490048782</v>
+      </c>
+      <c r="M65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:M$1)+About!$B$37)))</f>
+        <v>0.18242552380635635</v>
+      </c>
+      <c r="N65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:N$1)+About!$B$37)))</f>
+        <v>0.23147521650098238</v>
+      </c>
+      <c r="O65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:O$1)+About!$B$37)))</f>
+        <v>0.28905049737499605</v>
+      </c>
+      <c r="P65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:P$1)+About!$B$37)))</f>
+        <v>0.35434369377420455</v>
+      </c>
+      <c r="Q65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Q$1)+About!$B$37)))</f>
+        <v>0.42555748318834102</v>
+      </c>
+      <c r="R65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:R$1)+About!$B$37)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="S65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:S$1)+About!$B$37)))</f>
+        <v>0.57444251681165903</v>
+      </c>
+      <c r="T65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:T$1)+About!$B$37)))</f>
+        <v>0.6456563062257954</v>
+      </c>
+      <c r="U65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:U$1)+About!$B$37)))</f>
+        <v>0.71094950262500389</v>
+      </c>
+      <c r="V65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:V$1)+About!$B$37)))</f>
+        <v>0.76852478349901754</v>
+      </c>
+      <c r="W65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:W$1)+About!$B$37)))</f>
+        <v>0.81757447619364365</v>
+      </c>
+      <c r="X65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:X$1)+About!$B$37)))</f>
+        <v>0.85814893509951229</v>
+      </c>
+      <c r="Y65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Y$1)+About!$B$37)))</f>
+        <v>0.89090317880438707</v>
+      </c>
+      <c r="Z65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Z$1)+About!$B$37)))</f>
+        <v>0.91682730350607766</v>
+      </c>
+      <c r="AA65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AA$1)+About!$B$37)))</f>
+        <v>0.9370266439430035</v>
+      </c>
+      <c r="AB65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AB$1)+About!$B$37)))</f>
+        <v>0.95257412682243336</v>
+      </c>
+      <c r="AC65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AC$1)+About!$B$37)))</f>
+        <v>0.96442881072736386</v>
+      </c>
+      <c r="AD65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AD$1)+About!$B$37)))</f>
+        <v>0.97340300642313404</v>
+      </c>
+      <c r="AE65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AE$1)+About!$B$37)))</f>
+        <v>0.98015969426592253</v>
+      </c>
+      <c r="AF65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AF$1)+About!$B$37)))</f>
+        <v>0.98522596830672693</v>
+      </c>
+      <c r="AG65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AG$1)+About!$B$37)))</f>
+        <v>0.98901305736940681</v>
+      </c>
+      <c r="AH65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AH$1)+About!$B$37)))</f>
+        <v>0.99183742884684012</v>
+      </c>
+      <c r="AI65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AI$1)+About!$B$37)))</f>
+        <v>0.99394019850841575</v>
+      </c>
+      <c r="AJ65">
         <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AJ$1)+About!$B$37)))</f>
         <v>0.99550372683905886</v>
       </c>

--- a/InputData/plcy-schd/FoPITY/Fraction of Policy Implemented This Year.xlsx
+++ b/InputData/plcy-schd/FoPITY/Fraction of Policy Implemented This Year.xlsx
@@ -30,7 +30,7 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">FoPITY!$D$57</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">FoPITY!$D$60</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>RnD CCS fuel use reduction</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>trans TDM</t>
-  </si>
-  <si>
-    <t>trans vehicle electrification</t>
   </si>
   <si>
     <t>elec renewable portfolio standards</t>
@@ -348,6 +345,18 @@
   <si>
     <t>land forest restoration</t>
   </si>
+  <si>
+    <t>trans EV subsidy</t>
+  </si>
+  <si>
+    <t>trans EV perks</t>
+  </si>
+  <si>
+    <t>trans EV minimum</t>
+  </si>
+  <si>
+    <t>trans LCFS</t>
+  </si>
 </sst>
 </file>
 
@@ -649,7 +658,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FoPITY!$B$65:$AJ$65</c:f>
+              <c:f>FoPITY!$B$68:$AJ$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -773,11 +782,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="180502528"/>
-        <c:axId val="180504064"/>
+        <c:axId val="146241024"/>
+        <c:axId val="146242560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180502528"/>
+        <c:axId val="146241024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,7 +796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180504064"/>
+        <c:crossAx val="146242560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -795,7 +804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180504064"/>
+        <c:axId val="146242560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,7 +815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180502528"/>
+        <c:crossAx val="146241024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -965,7 +974,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FoPITY!$B$65:$AJ$65</c:f>
+              <c:f>FoPITY!$B$68:$AJ$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1089,11 +1098,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198870144"/>
-        <c:axId val="198871680"/>
+        <c:axId val="146593664"/>
+        <c:axId val="146595200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198870144"/>
+        <c:axId val="146593664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,7 +1112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198871680"/>
+        <c:crossAx val="146595200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1111,7 +1120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198871680"/>
+        <c:axId val="146595200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198870144"/>
+        <c:crossAx val="146593664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1182,13 +1191,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1506,149 +1515,149 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="7">
         <v>1</v>
@@ -1656,9 +1665,9 @@
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="7">
         <v>-0.3</v>
@@ -1668,7 +1677,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="10">
         <v>-17</v>
@@ -1687,7 +1696,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AJ65"/>
+  <dimension ref="A1:AJ68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1703,7 +1712,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1">
         <v>2016</v>
@@ -1961,108 +1970,143 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <f t="shared" ref="D3" si="1">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <f t="shared" ref="E3" si="2">(COLUMN(D$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <f t="shared" ref="F3" si="3">(COLUMN(E$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <f t="shared" ref="G3" si="4">(COLUMN(F$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.14705882352941177</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <f t="shared" ref="H3" si="5">(COLUMN(G$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <f t="shared" ref="I3" si="6">(COLUMN(H$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.20588235294117646</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <f t="shared" ref="J3" si="7">(COLUMN(I$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.23529411764705882</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <f t="shared" ref="K3" si="8">(COLUMN(J$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.26470588235294118</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <f t="shared" ref="L3" si="9">(COLUMN(K$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.29411764705882354</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <f t="shared" ref="M3" si="10">(COLUMN(L$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.3235294117647059</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <f t="shared" ref="N3" si="11">(COLUMN(M$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.35294117647058826</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <f t="shared" ref="O3" si="12">(COLUMN(N$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.38235294117647056</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <f t="shared" ref="P3" si="13">(COLUMN(O$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.41176470588235292</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <f t="shared" ref="Q3" si="14">(COLUMN(P$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.44117647058823528</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <f t="shared" ref="R3" si="15">(COLUMN(Q$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <f t="shared" ref="S3" si="16">(COLUMN(R$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.5</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <f t="shared" ref="T3" si="17">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.52941176470588236</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <f t="shared" ref="U3" si="18">(COLUMN(T$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.55882352941176472</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <f t="shared" ref="V3" si="19">(COLUMN(U$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.58823529411764708</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <f t="shared" ref="W3" si="20">(COLUMN(V$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.61764705882352944</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <f t="shared" ref="X3" si="21">(COLUMN(W$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <f t="shared" ref="Y3" si="22">(COLUMN(X$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.67647058823529416</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <f t="shared" ref="Z3" si="23">(COLUMN(Y$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <f t="shared" ref="AA3" si="24">(COLUMN(Z$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.73529411764705888</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <f t="shared" ref="AB3" si="25">(COLUMN(AA$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.76470588235294112</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <f t="shared" ref="AC3" si="26">(COLUMN(AB$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.79411764705882348</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <f t="shared" ref="AD3" si="27">(COLUMN(AC$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <f t="shared" ref="AE3" si="28">(COLUMN(AD$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <f t="shared" ref="AF3" si="29">(COLUMN(AE$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.88235294117647056</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <f t="shared" ref="AG3" si="30">(COLUMN(AF$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.91176470588235292</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <f t="shared" ref="AH3" si="31">(COLUMN(AG$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <f t="shared" ref="AI3" si="32">(COLUMN(AH$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.97058823529411764</v>
       </c>
       <c r="AJ3">
+        <f t="shared" ref="AJ3" si="33">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2071,769 +2115,839 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:C6" si="1">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="B4:C9" si="34">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="34"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:S6" si="2">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="D4:S9" si="35">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.5</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:AI6" si="3">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="T4:AI9" si="36">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0.52941176470588236</v>
       </c>
       <c r="U4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ4">
-        <f t="shared" ref="AJ4:AJ6" si="4">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="AJ4:AJ9" si="37">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="34"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="35"/>
         <v>0.5</v>
       </c>
       <c r="T5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="36"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
-        <v>2.9411764705882353E-2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" si="2"/>
-        <v>5.8823529411764705E-2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
-        <v>8.8235294117647065E-2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>0.11764705882352941</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
-        <v>0.14705882352941177</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
-        <v>0.17647058823529413</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
-        <v>0.20588235294117646</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
-        <v>0.23529411764705882</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
-        <v>0.26470588235294118</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <f t="shared" si="2"/>
-        <v>0.29411764705882354</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
-        <v>0.3235294117647059</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <f t="shared" si="2"/>
-        <v>0.35294117647058826</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <f t="shared" si="2"/>
-        <v>0.38235294117647056</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <f t="shared" si="2"/>
-        <v>0.41176470588235292</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
-        <v>0.44117647058823528</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <f t="shared" si="2"/>
-        <v>0.47058823529411764</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <f t="shared" si="3"/>
-        <v>0.52941176470588236</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <f t="shared" si="3"/>
-        <v>0.55882352941176472</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <f t="shared" si="3"/>
-        <v>0.58823529411764708</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <f t="shared" si="3"/>
-        <v>0.61764705882352944</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <f t="shared" si="3"/>
-        <v>0.6470588235294118</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="3"/>
-        <v>0.67647058823529416</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="3"/>
-        <v>0.70588235294117652</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="3"/>
-        <v>0.73529411764705888</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="3"/>
-        <v>0.76470588235294112</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="3"/>
-        <v>0.79411764705882348</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="3"/>
-        <v>0.82352941176470584</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="3"/>
-        <v>0.8529411764705882</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="3"/>
-        <v>0.88235294117647056</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="3"/>
-        <v>0.91176470588235292</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="3"/>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="3"/>
-        <v>0.97058823529411764</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B7">
+        <f t="shared" ref="B7" si="38">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <f t="shared" ref="C7" si="39">(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <f t="shared" ref="D7" si="40">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <f t="shared" ref="E7" si="41">(COLUMN(D$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <f t="shared" ref="F7" si="42">(COLUMN(E$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <f t="shared" ref="G7" si="43">(COLUMN(F$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.14705882352941177</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <f t="shared" ref="H7" si="44">(COLUMN(G$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <f t="shared" ref="I7" si="45">(COLUMN(H$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.20588235294117646</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <f t="shared" ref="J7" si="46">(COLUMN(I$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.23529411764705882</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <f t="shared" ref="K7" si="47">(COLUMN(J$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.26470588235294118</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <f t="shared" ref="L7" si="48">(COLUMN(K$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.29411764705882354</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <f t="shared" ref="M7" si="49">(COLUMN(L$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.3235294117647059</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <f t="shared" ref="N7" si="50">(COLUMN(M$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.35294117647058826</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <f t="shared" ref="O7" si="51">(COLUMN(N$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.38235294117647056</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <f t="shared" ref="P7" si="52">(COLUMN(O$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.41176470588235292</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <f t="shared" ref="Q7" si="53">(COLUMN(P$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.44117647058823528</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <f t="shared" ref="R7" si="54">(COLUMN(Q$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <f t="shared" ref="S7" si="55">(COLUMN(R$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.5</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <f t="shared" ref="T7" si="56">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.52941176470588236</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <f t="shared" ref="U7" si="57">(COLUMN(T$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.55882352941176472</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <f t="shared" ref="V7" si="58">(COLUMN(U$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.58823529411764708</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <f t="shared" ref="W7" si="59">(COLUMN(V$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.61764705882352944</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <f t="shared" ref="X7" si="60">(COLUMN(W$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <f t="shared" ref="Y7" si="61">(COLUMN(X$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.67647058823529416</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <f t="shared" ref="Z7" si="62">(COLUMN(Y$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <f t="shared" ref="AA7" si="63">(COLUMN(Z$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.73529411764705888</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <f t="shared" ref="AB7" si="64">(COLUMN(AA$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.76470588235294112</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <f t="shared" ref="AC7" si="65">(COLUMN(AB$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.79411764705882348</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <f t="shared" ref="AD7" si="66">(COLUMN(AC$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <f t="shared" ref="AE7" si="67">(COLUMN(AD$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <f t="shared" ref="AF7" si="68">(COLUMN(AE$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.88235294117647056</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <f t="shared" ref="AG7" si="69">(COLUMN(AF$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.91176470588235292</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <f t="shared" ref="AH7" si="70">(COLUMN(AG$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <f t="shared" ref="AI7" si="71">(COLUMN(AH$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.97058823529411764</v>
       </c>
       <c r="AJ7">
+        <f t="shared" ref="AJ7" si="72">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="B8">
+        <f t="shared" ref="B8" si="73">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <f t="shared" ref="C8" si="74">(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <f t="shared" ref="D8" si="75">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <f t="shared" ref="E8" si="76">(COLUMN(D$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <f t="shared" ref="F8" si="77">(COLUMN(E$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <f t="shared" ref="G8" si="78">(COLUMN(F$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.14705882352941177</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <f t="shared" ref="H8" si="79">(COLUMN(G$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <f t="shared" ref="I8" si="80">(COLUMN(H$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.20588235294117646</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <f t="shared" ref="J8" si="81">(COLUMN(I$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.23529411764705882</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <f t="shared" ref="K8" si="82">(COLUMN(J$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.26470588235294118</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <f t="shared" ref="L8" si="83">(COLUMN(K$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.29411764705882354</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <f t="shared" ref="M8" si="84">(COLUMN(L$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.3235294117647059</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <f t="shared" ref="N8" si="85">(COLUMN(M$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.35294117647058826</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <f t="shared" ref="O8" si="86">(COLUMN(N$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.38235294117647056</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <f t="shared" ref="P8" si="87">(COLUMN(O$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.41176470588235292</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <f t="shared" ref="Q8" si="88">(COLUMN(P$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.44117647058823528</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <f t="shared" ref="R8" si="89">(COLUMN(Q$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <f t="shared" ref="S8" si="90">(COLUMN(R$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.5</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <f t="shared" ref="T8" si="91">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.52941176470588236</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <f t="shared" ref="U8" si="92">(COLUMN(T$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.55882352941176472</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <f t="shared" ref="V8" si="93">(COLUMN(U$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.58823529411764708</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <f t="shared" ref="W8" si="94">(COLUMN(V$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.61764705882352944</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <f t="shared" ref="X8" si="95">(COLUMN(W$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <f t="shared" ref="Y8" si="96">(COLUMN(X$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.67647058823529416</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <f t="shared" ref="Z8" si="97">(COLUMN(Y$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <f t="shared" ref="AA8" si="98">(COLUMN(Z$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.73529411764705888</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <f t="shared" ref="AB8" si="99">(COLUMN(AA$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.76470588235294112</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <f t="shared" ref="AC8" si="100">(COLUMN(AB$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.79411764705882348</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <f t="shared" ref="AD8" si="101">(COLUMN(AC$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <f t="shared" ref="AE8" si="102">(COLUMN(AD$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <f t="shared" ref="AF8" si="103">(COLUMN(AE$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.88235294117647056</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <f t="shared" ref="AG8" si="104">(COLUMN(AF$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.91176470588235292</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <f t="shared" ref="AH8" si="105">(COLUMN(AG$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <f t="shared" ref="AI8" si="106">(COLUMN(AH$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.97058823529411764</v>
       </c>
       <c r="AJ8">
+        <f t="shared" ref="AJ8" si="107">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>0.14705882352941177</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>0.20588235294117646</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>0.23529411764705882</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>0.26470588235294118</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>0.29411764705882354</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>0.3235294117647059</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>0.35294117647058826</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>0.38235294117647056</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>0.41176470588235292</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>0.44117647058823528</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>0.5</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0.52941176470588236</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0.55882352941176472</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0.58823529411764708</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0.61764705882352944</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0.67647058823529416</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0.73529411764705888</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0.76470588235294112</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0.79411764705882348</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0.88235294117647056</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0.91176470588235292</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0.97058823529411764</v>
       </c>
       <c r="AJ9">
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3053,7 +3167,7 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3161,1069 +3275,1067 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:C17" si="5">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C13">
-        <f t="shared" si="5"/>
-        <v>2.9411764705882353E-2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:S17" si="6">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
-        <v>5.8823529411764705E-2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <f t="shared" si="6"/>
-        <v>8.8235294117647065E-2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <f t="shared" si="6"/>
-        <v>0.11764705882352941</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <f t="shared" si="6"/>
-        <v>0.14705882352941177</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <f t="shared" si="6"/>
-        <v>0.17647058823529413</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <f t="shared" si="6"/>
-        <v>0.20588235294117646</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <f t="shared" si="6"/>
-        <v>0.23529411764705882</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <f t="shared" si="6"/>
-        <v>0.26470588235294118</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <f t="shared" si="6"/>
-        <v>0.29411764705882354</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <f t="shared" si="6"/>
-        <v>0.3235294117647059</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <f t="shared" si="6"/>
-        <v>0.35294117647058826</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <f t="shared" si="6"/>
-        <v>0.38235294117647056</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <f t="shared" si="6"/>
-        <v>0.41176470588235292</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="6"/>
-        <v>0.44117647058823528</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <f t="shared" si="6"/>
-        <v>0.47058823529411764</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13:AI17" si="7">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
-        <v>0.52941176470588236</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <f t="shared" si="7"/>
-        <v>0.55882352941176472</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <f t="shared" si="7"/>
-        <v>0.58823529411764708</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <f t="shared" si="7"/>
-        <v>0.61764705882352944</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <f t="shared" si="7"/>
-        <v>0.6470588235294118</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="7"/>
-        <v>0.67647058823529416</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="7"/>
-        <v>0.70588235294117652</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="7"/>
-        <v>0.73529411764705888</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="7"/>
-        <v>0.76470588235294112</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="7"/>
-        <v>0.79411764705882348</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="7"/>
-        <v>0.82352941176470584</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="7"/>
-        <v>0.8529411764705882</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="7"/>
-        <v>0.88235294117647056</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="7"/>
-        <v>0.91176470588235292</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="7"/>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="7"/>
-        <v>0.97058823529411764</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <f t="shared" ref="AJ13:AJ17" si="8">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C14">
-        <f t="shared" si="5"/>
-        <v>2.9411764705882353E-2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="6"/>
-        <v>5.8823529411764705E-2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="6"/>
-        <v>8.8235294117647065E-2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="6"/>
-        <v>0.11764705882352941</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <f t="shared" si="6"/>
-        <v>0.14705882352941177</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="6"/>
-        <v>0.17647058823529413</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <f t="shared" si="6"/>
-        <v>0.20588235294117646</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <f t="shared" si="6"/>
-        <v>0.23529411764705882</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <f t="shared" si="6"/>
-        <v>0.26470588235294118</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <f t="shared" si="6"/>
-        <v>0.29411764705882354</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <f t="shared" si="6"/>
-        <v>0.3235294117647059</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <f t="shared" si="6"/>
-        <v>0.35294117647058826</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <f t="shared" si="6"/>
-        <v>0.38235294117647056</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <f t="shared" si="6"/>
-        <v>0.41176470588235292</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="6"/>
-        <v>0.44117647058823528</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <f t="shared" si="6"/>
-        <v>0.47058823529411764</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <f t="shared" si="7"/>
-        <v>0.52941176470588236</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <f t="shared" si="7"/>
-        <v>0.55882352941176472</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <f t="shared" si="7"/>
-        <v>0.58823529411764708</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <f t="shared" si="7"/>
-        <v>0.61764705882352944</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <f t="shared" si="7"/>
-        <v>0.6470588235294118</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="7"/>
-        <v>0.67647058823529416</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="7"/>
-        <v>0.70588235294117652</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="7"/>
-        <v>0.73529411764705888</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="7"/>
-        <v>0.76470588235294112</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="7"/>
-        <v>0.79411764705882348</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="7"/>
-        <v>0.82352941176470584</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="7"/>
-        <v>0.8529411764705882</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="7"/>
-        <v>0.88235294117647056</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="7"/>
-        <v>0.91176470588235292</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="7"/>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="7"/>
-        <v>0.97058823529411764</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C15">
-        <f t="shared" si="5"/>
-        <v>2.9411764705882353E-2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <f t="shared" si="6"/>
-        <v>5.8823529411764705E-2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <f t="shared" si="6"/>
-        <v>8.8235294117647065E-2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <f t="shared" si="6"/>
-        <v>0.11764705882352941</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <f t="shared" si="6"/>
-        <v>0.14705882352941177</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <f t="shared" si="6"/>
-        <v>0.17647058823529413</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <f t="shared" si="6"/>
-        <v>0.20588235294117646</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <f t="shared" si="6"/>
-        <v>0.23529411764705882</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <f t="shared" si="6"/>
-        <v>0.26470588235294118</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <f t="shared" si="6"/>
-        <v>0.29411764705882354</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <f t="shared" si="6"/>
-        <v>0.3235294117647059</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <f t="shared" si="6"/>
-        <v>0.35294117647058826</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <f t="shared" si="6"/>
-        <v>0.38235294117647056</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <f t="shared" si="6"/>
-        <v>0.41176470588235292</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="6"/>
-        <v>0.44117647058823528</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <f t="shared" si="6"/>
-        <v>0.47058823529411764</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <f t="shared" si="7"/>
-        <v>0.52941176470588236</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <f t="shared" si="7"/>
-        <v>0.55882352941176472</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <f t="shared" si="7"/>
-        <v>0.58823529411764708</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <f t="shared" si="7"/>
-        <v>0.61764705882352944</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <f t="shared" si="7"/>
-        <v>0.6470588235294118</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="7"/>
-        <v>0.67647058823529416</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="7"/>
-        <v>0.70588235294117652</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="7"/>
-        <v>0.73529411764705888</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="7"/>
-        <v>0.76470588235294112</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="7"/>
-        <v>0.79411764705882348</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="7"/>
-        <v>0.82352941176470584</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="7"/>
-        <v>0.8529411764705882</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="7"/>
-        <v>0.88235294117647056</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="7"/>
-        <v>0.91176470588235292</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="7"/>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="7"/>
-        <v>0.97058823529411764</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B16">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B16:C20" si="108">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="108"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D16:S20" si="109">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.5</v>
       </c>
       <c r="T16">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="T16:AI20" si="110">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0.52941176470588236</v>
       </c>
       <c r="U16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AJ16:AJ20" si="111">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="C17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="108"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="109"/>
         <v>0.5</v>
       </c>
       <c r="T17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="110"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="111"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="12">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="108"/>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <f t="shared" si="108"/>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.14705882352941177</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.20588235294117646</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.23529411764705882</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.26470588235294118</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.29411764705882354</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.3235294117647059</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.35294117647058826</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.38235294117647056</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.41176470588235292</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.44117647058823528</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.5</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.52941176470588236</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.55882352941176472</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.58823529411764708</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.61764705882352944</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.67647058823529416</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.73529411764705888</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.76470588235294112</v>
       </c>
       <c r="AC18">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.79411764705882348</v>
       </c>
       <c r="AD18">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AF18">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.88235294117647056</v>
       </c>
       <c r="AG18">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.91176470588235292</v>
       </c>
       <c r="AH18">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.97058823529411764</v>
       </c>
       <c r="AJ18">
+        <f t="shared" si="111"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B19">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <f t="shared" si="108"/>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.14705882352941177</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.20588235294117646</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.23529411764705882</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.26470588235294118</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.29411764705882354</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.3235294117647059</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.35294117647058826</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.38235294117647056</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.41176470588235292</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.44117647058823528</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.5</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.52941176470588236</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.55882352941176472</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.58823529411764708</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.61764705882352944</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.67647058823529416</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.73529411764705888</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.76470588235294112</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.79411764705882348</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AE19">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AF19">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.88235294117647056</v>
       </c>
       <c r="AG19">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.91176470588235292</v>
       </c>
       <c r="AH19">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.97058823529411764</v>
       </c>
       <c r="AJ19">
+        <f t="shared" si="111"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <f t="shared" si="108"/>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.14705882352941177</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.20588235294117646</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.23529411764705882</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.26470588235294118</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.29411764705882354</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.3235294117647059</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.35294117647058826</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.38235294117647056</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.41176470588235292</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.44117647058823528</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <f t="shared" si="109"/>
+        <v>0.5</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.52941176470588236</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.55882352941176472</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.58823529411764708</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.61764705882352944</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.67647058823529416</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.73529411764705888</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.76470588235294112</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.79411764705882348</v>
       </c>
       <c r="AD20">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AE20">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AF20">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.88235294117647056</v>
       </c>
       <c r="AG20">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.91176470588235292</v>
       </c>
       <c r="AH20">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <f t="shared" si="110"/>
+        <v>0.97058823529411764</v>
       </c>
       <c r="AJ20">
+        <f t="shared" si="111"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="B21" s="12">
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4328,156 +4440,123 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B22">
         <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C22">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
-        <v>2.9411764705882353E-2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:AJ22" si="9">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
-        <v>5.8823529411764705E-2</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <f t="shared" si="9"/>
-        <v>8.8235294117647065E-2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <f t="shared" si="9"/>
-        <v>0.11764705882352941</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <f t="shared" si="9"/>
-        <v>0.14705882352941177</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <f t="shared" si="9"/>
-        <v>0.17647058823529413</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <f t="shared" si="9"/>
-        <v>0.20588235294117646</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <f t="shared" si="9"/>
-        <v>0.23529411764705882</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <f t="shared" si="9"/>
-        <v>0.26470588235294118</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <f t="shared" si="9"/>
-        <v>0.29411764705882354</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <f t="shared" si="9"/>
-        <v>0.3235294117647059</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <f t="shared" si="9"/>
-        <v>0.35294117647058826</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <f t="shared" si="9"/>
-        <v>0.38235294117647056</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <f t="shared" si="9"/>
-        <v>0.41176470588235292</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="9"/>
-        <v>0.44117647058823528</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <f t="shared" si="9"/>
-        <v>0.47058823529411764</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <f t="shared" si="9"/>
-        <v>0.52941176470588236</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <f t="shared" si="9"/>
-        <v>0.55882352941176472</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <f t="shared" si="9"/>
-        <v>0.58823529411764708</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <f t="shared" si="9"/>
-        <v>0.61764705882352944</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <f t="shared" si="9"/>
-        <v>0.6470588235294118</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="9"/>
-        <v>0.67647058823529416</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="9"/>
-        <v>0.70588235294117652</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="9"/>
-        <v>0.73529411764705888</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="9"/>
-        <v>0.76470588235294112</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="9"/>
-        <v>0.79411764705882348</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="9"/>
-        <v>0.82352941176470584</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="9"/>
-        <v>0.8529411764705882</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="9"/>
-        <v>0.88235294117647056</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="9"/>
-        <v>0.91176470588235292</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="9"/>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="9"/>
-        <v>0.97058823529411764</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B23">
+        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C23">
@@ -4585,7 +4664,7 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4695,7 +4774,7 @@
     </row>
     <row r="25" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
@@ -4706,141 +4785,141 @@
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:AJ25" si="10">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="D25:AJ25" si="112">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.5</v>
       </c>
       <c r="T25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="112"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4950,7 +5029,7 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -5060,3417 +5139,3347 @@
     </row>
     <row r="28" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:C45" si="11">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C28">
-        <f t="shared" si="11"/>
+        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:S43" si="12">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="D28:AJ28" si="113">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="113"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="113"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="113"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="113"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="113"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="113"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="113"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="113"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="113"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="113"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="113"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="113"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="113"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="113"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="113"/>
         <v>0.5</v>
       </c>
       <c r="T28">
-        <f t="shared" ref="T28:AI43" si="13">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="113"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="113"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="113"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="113"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="113"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="113"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="113"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="113"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="113"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="113"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="113"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="113"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="113"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="113"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="113"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="113"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ28">
-        <f t="shared" ref="AJ28:AJ45" si="14">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C29">
-        <f t="shared" si="11"/>
-        <v>2.9411764705882353E-2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <f t="shared" si="12"/>
-        <v>5.8823529411764705E-2</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <f t="shared" si="12"/>
-        <v>8.8235294117647065E-2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <f t="shared" si="12"/>
-        <v>0.11764705882352941</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <f t="shared" si="12"/>
-        <v>0.14705882352941177</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <f t="shared" si="12"/>
-        <v>0.17647058823529413</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <f t="shared" si="12"/>
-        <v>0.20588235294117646</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <f t="shared" si="12"/>
-        <v>0.23529411764705882</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <f t="shared" si="12"/>
-        <v>0.26470588235294118</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <f t="shared" si="12"/>
-        <v>0.29411764705882354</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <f t="shared" si="12"/>
-        <v>0.3235294117647059</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <f t="shared" si="12"/>
-        <v>0.35294117647058826</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <f t="shared" si="12"/>
-        <v>0.38235294117647056</v>
+        <v>1</v>
       </c>
       <c r="P29">
-        <f t="shared" si="12"/>
-        <v>0.41176470588235292</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="12"/>
-        <v>0.44117647058823528</v>
+        <v>1</v>
       </c>
       <c r="R29">
-        <f t="shared" si="12"/>
-        <v>0.47058823529411764</v>
+        <v>1</v>
       </c>
       <c r="S29">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T29">
-        <f t="shared" si="13"/>
-        <v>0.52941176470588236</v>
+        <v>1</v>
       </c>
       <c r="U29">
-        <f t="shared" si="13"/>
-        <v>0.55882352941176472</v>
+        <v>1</v>
       </c>
       <c r="V29">
-        <f t="shared" si="13"/>
-        <v>0.58823529411764708</v>
+        <v>1</v>
       </c>
       <c r="W29">
-        <f t="shared" si="13"/>
-        <v>0.61764705882352944</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <f t="shared" si="13"/>
-        <v>0.6470588235294118</v>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="13"/>
-        <v>0.67647058823529416</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="13"/>
-        <v>0.70588235294117652</v>
+        <v>1</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="13"/>
-        <v>0.73529411764705888</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="13"/>
-        <v>0.76470588235294112</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="13"/>
-        <v>0.79411764705882348</v>
+        <v>1</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="13"/>
-        <v>0.82352941176470584</v>
+        <v>1</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="13"/>
-        <v>0.8529411764705882</v>
+        <v>1</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="13"/>
-        <v>0.88235294117647056</v>
+        <v>1</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="13"/>
-        <v>0.91176470588235292</v>
+        <v>1</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="13"/>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="13"/>
-        <v>0.97058823529411764</v>
+        <v>1</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="B30">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C30">
-        <f t="shared" si="11"/>
-        <v>2.9411764705882353E-2</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <f t="shared" si="12"/>
-        <v>5.8823529411764705E-2</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <f t="shared" si="12"/>
-        <v>8.8235294117647065E-2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <f t="shared" si="12"/>
-        <v>0.11764705882352941</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <f t="shared" si="12"/>
-        <v>0.14705882352941177</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <f t="shared" si="12"/>
-        <v>0.17647058823529413</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <f t="shared" si="12"/>
-        <v>0.20588235294117646</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <f t="shared" si="12"/>
-        <v>0.23529411764705882</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <f t="shared" si="12"/>
-        <v>0.26470588235294118</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <f t="shared" si="12"/>
-        <v>0.29411764705882354</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <f t="shared" si="12"/>
-        <v>0.3235294117647059</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <f t="shared" si="12"/>
-        <v>0.35294117647058826</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <f t="shared" si="12"/>
-        <v>0.38235294117647056</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <f t="shared" si="12"/>
-        <v>0.41176470588235292</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="12"/>
-        <v>0.44117647058823528</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <f t="shared" si="12"/>
-        <v>0.47058823529411764</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <f t="shared" si="13"/>
-        <v>0.52941176470588236</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <f t="shared" si="13"/>
-        <v>0.55882352941176472</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <f t="shared" si="13"/>
-        <v>0.58823529411764708</v>
+        <v>1</v>
       </c>
       <c r="W30">
-        <f t="shared" si="13"/>
-        <v>0.61764705882352944</v>
+        <v>1</v>
       </c>
       <c r="X30">
-        <f t="shared" si="13"/>
-        <v>0.6470588235294118</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="13"/>
-        <v>0.67647058823529416</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="13"/>
-        <v>0.70588235294117652</v>
+        <v>1</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="13"/>
-        <v>0.73529411764705888</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="13"/>
-        <v>0.76470588235294112</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="13"/>
-        <v>0.79411764705882348</v>
+        <v>1</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="13"/>
-        <v>0.82352941176470584</v>
+        <v>1</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="13"/>
-        <v>0.8529411764705882</v>
+        <v>1</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="13"/>
-        <v>0.88235294117647056</v>
+        <v>1</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="13"/>
-        <v>0.91176470588235292</v>
+        <v>1</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="13"/>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="13"/>
-        <v>0.97058823529411764</v>
+        <v>1</v>
       </c>
       <c r="AJ30">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B31">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="B31:C48" si="114">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="D31:S46" si="115">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.5</v>
       </c>
       <c r="T31">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="T31:AI46" si="116">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0.52941176470588236</v>
       </c>
       <c r="U31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ31">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AJ31:AJ48" si="117">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="C32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.5</v>
       </c>
       <c r="T32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="C33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.5</v>
       </c>
       <c r="T33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="B34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="C34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.5</v>
       </c>
       <c r="T34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="C35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.5</v>
       </c>
       <c r="T35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="C36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.5</v>
       </c>
       <c r="T36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="C37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.5</v>
       </c>
       <c r="T37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="C38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.5</v>
       </c>
       <c r="T38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="C39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.5</v>
       </c>
       <c r="T39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="C40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.5</v>
       </c>
       <c r="T40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="C41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.5</v>
       </c>
       <c r="T41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="C42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.5</v>
       </c>
       <c r="T42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="C43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="115"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S43">
-        <f t="shared" ref="S43:AH45" si="15">(COLUMN(R$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="115"/>
         <v>0.5</v>
       </c>
       <c r="T43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="116"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI43">
-        <f t="shared" ref="AI43:AI45" si="16">(COLUMN(AH$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="116"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="C44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D44">
-        <f t="shared" ref="D44:R45" si="17">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="115"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="115"/>
         <v>0.5</v>
       </c>
       <c r="T44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="116"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="C45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="114"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="115"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="115"/>
         <v>0.5</v>
       </c>
       <c r="T45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="116"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="116"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B46">
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <f t="shared" si="114"/>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <f t="shared" si="115"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <f t="shared" si="115"/>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <f t="shared" si="115"/>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <f t="shared" si="115"/>
+        <v>0.14705882352941177</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <f t="shared" si="115"/>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <f t="shared" si="115"/>
+        <v>0.20588235294117646</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <f t="shared" si="115"/>
+        <v>0.23529411764705882</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <f t="shared" si="115"/>
+        <v>0.26470588235294118</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <f t="shared" si="115"/>
+        <v>0.29411764705882354</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <f t="shared" si="115"/>
+        <v>0.3235294117647059</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <f t="shared" si="115"/>
+        <v>0.35294117647058826</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <f t="shared" si="115"/>
+        <v>0.38235294117647056</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <f t="shared" si="115"/>
+        <v>0.41176470588235292</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <f t="shared" si="115"/>
+        <v>0.44117647058823528</v>
       </c>
       <c r="R46">
-        <v>1</v>
+        <f t="shared" si="115"/>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <f t="shared" ref="S46:AH48" si="118">(COLUMN(R$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.5</v>
       </c>
       <c r="T46">
-        <v>1</v>
+        <f t="shared" si="116"/>
+        <v>0.52941176470588236</v>
       </c>
       <c r="U46">
-        <v>1</v>
+        <f t="shared" si="116"/>
+        <v>0.55882352941176472</v>
       </c>
       <c r="V46">
-        <v>1</v>
+        <f t="shared" si="116"/>
+        <v>0.58823529411764708</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <f t="shared" si="116"/>
+        <v>0.61764705882352944</v>
       </c>
       <c r="X46">
-        <v>1</v>
+        <f t="shared" si="116"/>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <f t="shared" si="116"/>
+        <v>0.67647058823529416</v>
       </c>
       <c r="Z46">
-        <v>1</v>
+        <f t="shared" si="116"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AA46">
-        <v>1</v>
+        <f t="shared" si="116"/>
+        <v>0.73529411764705888</v>
       </c>
       <c r="AB46">
-        <v>1</v>
+        <f t="shared" si="116"/>
+        <v>0.76470588235294112</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <f t="shared" si="116"/>
+        <v>0.79411764705882348</v>
       </c>
       <c r="AD46">
-        <v>1</v>
+        <f t="shared" si="116"/>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AE46">
-        <v>1</v>
+        <f t="shared" si="116"/>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AF46">
-        <v>1</v>
+        <f t="shared" si="116"/>
+        <v>0.88235294117647056</v>
       </c>
       <c r="AG46">
-        <v>1</v>
+        <f t="shared" si="116"/>
+        <v>0.91176470588235292</v>
       </c>
       <c r="AH46">
-        <v>1</v>
+        <f t="shared" si="116"/>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <f t="shared" ref="AI46:AI48" si="119">(COLUMN(AH$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.97058823529411764</v>
       </c>
       <c r="AJ46">
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B47">
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <f t="shared" si="114"/>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <f t="shared" ref="D47:R48" si="120">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <f t="shared" si="120"/>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <f t="shared" si="120"/>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <f t="shared" si="120"/>
+        <v>0.14705882352941177</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <f t="shared" si="120"/>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <f t="shared" si="120"/>
+        <v>0.20588235294117646</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <f t="shared" si="120"/>
+        <v>0.23529411764705882</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <f t="shared" si="120"/>
+        <v>0.26470588235294118</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <f t="shared" si="120"/>
+        <v>0.29411764705882354</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <f t="shared" si="120"/>
+        <v>0.3235294117647059</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <f t="shared" si="120"/>
+        <v>0.35294117647058826</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <f t="shared" si="120"/>
+        <v>0.38235294117647056</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <f t="shared" si="120"/>
+        <v>0.41176470588235292</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <f t="shared" si="120"/>
+        <v>0.44117647058823528</v>
       </c>
       <c r="R47">
-        <v>1</v>
+        <f t="shared" si="120"/>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <f t="shared" si="118"/>
+        <v>0.5</v>
       </c>
       <c r="T47">
-        <v>1</v>
+        <f t="shared" si="118"/>
+        <v>0.52941176470588236</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <f t="shared" si="118"/>
+        <v>0.55882352941176472</v>
       </c>
       <c r="V47">
-        <v>1</v>
+        <f t="shared" si="118"/>
+        <v>0.58823529411764708</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <f t="shared" si="118"/>
+        <v>0.61764705882352944</v>
       </c>
       <c r="X47">
-        <v>1</v>
+        <f t="shared" si="118"/>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Y47">
-        <v>1</v>
+        <f t="shared" si="118"/>
+        <v>0.67647058823529416</v>
       </c>
       <c r="Z47">
-        <v>1</v>
+        <f t="shared" si="118"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <f t="shared" si="118"/>
+        <v>0.73529411764705888</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <f t="shared" si="118"/>
+        <v>0.76470588235294112</v>
       </c>
       <c r="AC47">
-        <v>1</v>
+        <f t="shared" si="118"/>
+        <v>0.79411764705882348</v>
       </c>
       <c r="AD47">
-        <v>1</v>
+        <f t="shared" si="118"/>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AE47">
-        <v>1</v>
+        <f t="shared" si="118"/>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AF47">
-        <v>1</v>
+        <f t="shared" si="118"/>
+        <v>0.88235294117647056</v>
       </c>
       <c r="AG47">
-        <v>1</v>
+        <f t="shared" si="118"/>
+        <v>0.91176470588235292</v>
       </c>
       <c r="AH47">
-        <v>1</v>
+        <f t="shared" si="118"/>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <f t="shared" si="119"/>
+        <v>0.97058823529411764</v>
       </c>
       <c r="AJ47">
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="B48">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="C48">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="114"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48:S51" si="18">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="120"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="120"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="120"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="120"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="120"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="120"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="120"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="120"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="120"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="120"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="120"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="120"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="120"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="120"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="120"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="118"/>
         <v>0.5</v>
       </c>
       <c r="T48">
-        <f t="shared" ref="T48:AI51" si="19">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="118"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="118"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="118"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="118"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="118"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="118"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="118"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="118"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="118"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="118"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="118"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="118"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="118"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="118"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="118"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="119"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ48">
-        <f t="shared" ref="AJ48:AJ51" si="20">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B49">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C49">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
-        <v>2.9411764705882353E-2</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <f t="shared" si="18"/>
-        <v>5.8823529411764705E-2</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <f t="shared" si="18"/>
-        <v>8.8235294117647065E-2</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <f t="shared" si="18"/>
-        <v>0.11764705882352941</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <f t="shared" si="18"/>
-        <v>0.14705882352941177</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <f t="shared" si="18"/>
-        <v>0.17647058823529413</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <f t="shared" si="18"/>
-        <v>0.20588235294117646</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <f t="shared" si="18"/>
-        <v>0.23529411764705882</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <f t="shared" si="18"/>
-        <v>0.26470588235294118</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <f t="shared" si="18"/>
-        <v>0.29411764705882354</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <f t="shared" si="18"/>
-        <v>0.3235294117647059</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <f t="shared" si="18"/>
-        <v>0.35294117647058826</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <f t="shared" si="18"/>
-        <v>0.38235294117647056</v>
+        <v>1</v>
       </c>
       <c r="P49">
-        <f t="shared" si="18"/>
-        <v>0.41176470588235292</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="18"/>
-        <v>0.44117647058823528</v>
+        <v>1</v>
       </c>
       <c r="R49">
-        <f t="shared" si="18"/>
-        <v>0.47058823529411764</v>
+        <v>1</v>
       </c>
       <c r="S49">
-        <f t="shared" si="18"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <f t="shared" si="19"/>
-        <v>0.52941176470588236</v>
+        <v>1</v>
       </c>
       <c r="U49">
-        <f t="shared" si="19"/>
-        <v>0.55882352941176472</v>
+        <v>1</v>
       </c>
       <c r="V49">
-        <f t="shared" si="19"/>
-        <v>0.58823529411764708</v>
+        <v>1</v>
       </c>
       <c r="W49">
-        <f t="shared" si="19"/>
-        <v>0.61764705882352944</v>
+        <v>1</v>
       </c>
       <c r="X49">
-        <f t="shared" si="19"/>
-        <v>0.6470588235294118</v>
+        <v>1</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="19"/>
-        <v>0.67647058823529416</v>
+        <v>1</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="19"/>
-        <v>0.70588235294117652</v>
+        <v>1</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="19"/>
-        <v>0.73529411764705888</v>
+        <v>1</v>
       </c>
       <c r="AB49">
-        <f t="shared" si="19"/>
-        <v>0.76470588235294112</v>
+        <v>1</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="19"/>
-        <v>0.79411764705882348</v>
+        <v>1</v>
       </c>
       <c r="AD49">
-        <f t="shared" si="19"/>
-        <v>0.82352941176470584</v>
+        <v>1</v>
       </c>
       <c r="AE49">
-        <f t="shared" si="19"/>
-        <v>0.8529411764705882</v>
+        <v>1</v>
       </c>
       <c r="AF49">
-        <f t="shared" si="19"/>
-        <v>0.88235294117647056</v>
+        <v>1</v>
       </c>
       <c r="AG49">
-        <f t="shared" si="19"/>
-        <v>0.91176470588235292</v>
+        <v>1</v>
       </c>
       <c r="AH49">
-        <f t="shared" si="19"/>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="AI49">
-        <f t="shared" si="19"/>
-        <v>0.97058823529411764</v>
+        <v>1</v>
       </c>
       <c r="AJ49">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="B50">
-        <f t="shared" ref="B50:C50" si="21">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C50">
-        <f t="shared" si="21"/>
-        <v>2.9411764705882353E-2</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <f t="shared" si="18"/>
-        <v>5.8823529411764705E-2</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <f t="shared" si="18"/>
-        <v>8.8235294117647065E-2</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <f t="shared" si="18"/>
-        <v>0.11764705882352941</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <f t="shared" si="18"/>
-        <v>0.14705882352941177</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <f t="shared" si="18"/>
-        <v>0.17647058823529413</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <f t="shared" si="18"/>
-        <v>0.20588235294117646</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <f t="shared" si="18"/>
-        <v>0.23529411764705882</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <f t="shared" si="18"/>
-        <v>0.26470588235294118</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <f t="shared" si="18"/>
-        <v>0.29411764705882354</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <f t="shared" si="18"/>
-        <v>0.3235294117647059</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <f t="shared" si="18"/>
-        <v>0.35294117647058826</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <f t="shared" si="18"/>
-        <v>0.38235294117647056</v>
+        <v>1</v>
       </c>
       <c r="P50">
-        <f t="shared" si="18"/>
-        <v>0.41176470588235292</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="18"/>
-        <v>0.44117647058823528</v>
+        <v>1</v>
       </c>
       <c r="R50">
-        <f t="shared" si="18"/>
-        <v>0.47058823529411764</v>
+        <v>1</v>
       </c>
       <c r="S50">
-        <f t="shared" si="18"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T50">
-        <f t="shared" si="19"/>
-        <v>0.52941176470588236</v>
+        <v>1</v>
       </c>
       <c r="U50">
-        <f t="shared" si="19"/>
-        <v>0.55882352941176472</v>
+        <v>1</v>
       </c>
       <c r="V50">
-        <f t="shared" si="19"/>
-        <v>0.58823529411764708</v>
+        <v>1</v>
       </c>
       <c r="W50">
-        <f t="shared" si="19"/>
-        <v>0.61764705882352944</v>
+        <v>1</v>
       </c>
       <c r="X50">
-        <f t="shared" si="19"/>
-        <v>0.6470588235294118</v>
+        <v>1</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="19"/>
-        <v>0.67647058823529416</v>
+        <v>1</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="19"/>
-        <v>0.70588235294117652</v>
+        <v>1</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="19"/>
-        <v>0.73529411764705888</v>
+        <v>1</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="19"/>
-        <v>0.76470588235294112</v>
+        <v>1</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="19"/>
-        <v>0.79411764705882348</v>
+        <v>1</v>
       </c>
       <c r="AD50">
-        <f t="shared" si="19"/>
-        <v>0.82352941176470584</v>
+        <v>1</v>
       </c>
       <c r="AE50">
-        <f t="shared" si="19"/>
-        <v>0.8529411764705882</v>
+        <v>1</v>
       </c>
       <c r="AF50">
-        <f t="shared" si="19"/>
-        <v>0.88235294117647056</v>
+        <v>1</v>
       </c>
       <c r="AG50">
-        <f t="shared" si="19"/>
-        <v>0.91176470588235292</v>
+        <v>1</v>
       </c>
       <c r="AH50">
-        <f t="shared" si="19"/>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="AI50">
-        <f t="shared" si="19"/>
-        <v>0.97058823529411764</v>
+        <v>1</v>
       </c>
       <c r="AJ50">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51:C51" si="22">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C51">
-        <f t="shared" si="22"/>
+        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="D51:S54" si="121">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="121"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="121"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="121"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="121"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="121"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="121"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="121"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="121"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="121"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="121"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="121"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="121"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="121"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="121"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="121"/>
         <v>0.5</v>
       </c>
       <c r="T51">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="T51:AI54" si="122">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0.52941176470588236</v>
       </c>
       <c r="U51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="122"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="122"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="122"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="122"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="122"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="122"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="122"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="122"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="122"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="122"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="122"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="122"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="122"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="122"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="122"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ51">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="AJ51:AJ54" si="123">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B52">
         <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
@@ -8481,938 +8490,941 @@
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52:S53" si="23">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="121"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.5</v>
       </c>
       <c r="T52">
-        <f t="shared" ref="T52:AI53" si="24">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="122"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ52">
-        <f t="shared" ref="AJ52:AJ53" si="25">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B53">
-        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" ref="B53:C53" si="124">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C53">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <f t="shared" si="124"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="F53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="G53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="J53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="K53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.26470588235294118</v>
       </c>
       <c r="L53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="N53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="O53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="P53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="R53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="S53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="121"/>
         <v>0.5</v>
       </c>
       <c r="T53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="V53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="W53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="X53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AD53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AE53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.8529411764705882</v>
       </c>
       <c r="AF53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AG53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="AH53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="AI53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="122"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="AJ53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B54">
+        <f t="shared" ref="B54:C54" si="125">(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <f t="shared" si="125"/>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <f t="shared" si="121"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <f t="shared" si="121"/>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <f t="shared" si="121"/>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <f t="shared" si="121"/>
+        <v>0.14705882352941177</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <f t="shared" si="121"/>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <f t="shared" si="121"/>
+        <v>0.20588235294117646</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <f t="shared" si="121"/>
+        <v>0.23529411764705882</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <f t="shared" si="121"/>
+        <v>0.26470588235294118</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <f t="shared" si="121"/>
+        <v>0.29411764705882354</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <f t="shared" si="121"/>
+        <v>0.3235294117647059</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <f t="shared" si="121"/>
+        <v>0.35294117647058826</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <f t="shared" si="121"/>
+        <v>0.38235294117647056</v>
       </c>
       <c r="P54">
-        <v>1</v>
+        <f t="shared" si="121"/>
+        <v>0.41176470588235292</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <f t="shared" si="121"/>
+        <v>0.44117647058823528</v>
       </c>
       <c r="R54">
-        <v>1</v>
+        <f t="shared" si="121"/>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S54">
-        <v>1</v>
+        <f t="shared" si="121"/>
+        <v>0.5</v>
       </c>
       <c r="T54">
-        <v>1</v>
+        <f t="shared" si="122"/>
+        <v>0.52941176470588236</v>
       </c>
       <c r="U54">
-        <v>1</v>
+        <f t="shared" si="122"/>
+        <v>0.55882352941176472</v>
       </c>
       <c r="V54">
-        <v>1</v>
+        <f t="shared" si="122"/>
+        <v>0.58823529411764708</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <f t="shared" si="122"/>
+        <v>0.61764705882352944</v>
       </c>
       <c r="X54">
-        <v>1</v>
+        <f t="shared" si="122"/>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Y54">
-        <v>1</v>
+        <f t="shared" si="122"/>
+        <v>0.67647058823529416</v>
       </c>
       <c r="Z54">
-        <v>1</v>
+        <f t="shared" si="122"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <f t="shared" si="122"/>
+        <v>0.73529411764705888</v>
       </c>
       <c r="AB54">
-        <v>1</v>
+        <f t="shared" si="122"/>
+        <v>0.76470588235294112</v>
       </c>
       <c r="AC54">
-        <v>1</v>
+        <f t="shared" si="122"/>
+        <v>0.79411764705882348</v>
       </c>
       <c r="AD54">
-        <v>1</v>
+        <f t="shared" si="122"/>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AE54">
-        <v>1</v>
+        <f t="shared" si="122"/>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AF54">
-        <v>1</v>
+        <f t="shared" si="122"/>
+        <v>0.88235294117647056</v>
       </c>
       <c r="AG54">
-        <v>1</v>
+        <f t="shared" si="122"/>
+        <v>0.91176470588235292</v>
       </c>
       <c r="AH54">
-        <v>1</v>
+        <f t="shared" si="122"/>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <f t="shared" si="122"/>
+        <v>0.97058823529411764</v>
       </c>
       <c r="AJ54">
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="B55">
+        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <f t="shared" ref="D55:S56" si="126">(COLUMN(C$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <f t="shared" si="126"/>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <f t="shared" si="126"/>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <f t="shared" si="126"/>
+        <v>0.14705882352941177</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <f t="shared" si="126"/>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <f t="shared" si="126"/>
+        <v>0.20588235294117646</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <f t="shared" si="126"/>
+        <v>0.23529411764705882</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <f t="shared" si="126"/>
+        <v>0.26470588235294118</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <f t="shared" si="126"/>
+        <v>0.29411764705882354</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <f t="shared" si="126"/>
+        <v>0.3235294117647059</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <f t="shared" si="126"/>
+        <v>0.35294117647058826</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <f t="shared" si="126"/>
+        <v>0.38235294117647056</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <f t="shared" si="126"/>
+        <v>0.41176470588235292</v>
       </c>
       <c r="Q55">
-        <v>1</v>
+        <f t="shared" si="126"/>
+        <v>0.44117647058823528</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <f t="shared" si="126"/>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <f t="shared" si="126"/>
+        <v>0.5</v>
       </c>
       <c r="T55">
-        <v>1</v>
+        <f t="shared" ref="T55:AI56" si="127">(COLUMN(S$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>0.52941176470588236</v>
       </c>
       <c r="U55">
-        <v>1</v>
+        <f t="shared" si="127"/>
+        <v>0.55882352941176472</v>
       </c>
       <c r="V55">
-        <v>1</v>
+        <f t="shared" si="127"/>
+        <v>0.58823529411764708</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <f t="shared" si="127"/>
+        <v>0.61764705882352944</v>
       </c>
       <c r="X55">
-        <v>1</v>
+        <f t="shared" si="127"/>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Y55">
-        <v>1</v>
+        <f t="shared" si="127"/>
+        <v>0.67647058823529416</v>
       </c>
       <c r="Z55">
-        <v>1</v>
+        <f t="shared" si="127"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <f t="shared" si="127"/>
+        <v>0.73529411764705888</v>
       </c>
       <c r="AB55">
-        <v>1</v>
+        <f t="shared" si="127"/>
+        <v>0.76470588235294112</v>
       </c>
       <c r="AC55">
-        <v>1</v>
+        <f t="shared" si="127"/>
+        <v>0.79411764705882348</v>
       </c>
       <c r="AD55">
-        <v>1</v>
+        <f t="shared" si="127"/>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AE55">
-        <v>1</v>
+        <f t="shared" si="127"/>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AF55">
-        <v>1</v>
+        <f t="shared" si="127"/>
+        <v>0.88235294117647056</v>
       </c>
       <c r="AG55">
-        <v>1</v>
+        <f t="shared" si="127"/>
+        <v>0.91176470588235292</v>
       </c>
       <c r="AH55">
-        <v>1</v>
+        <f t="shared" si="127"/>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <f t="shared" si="127"/>
+        <v>0.97058823529411764</v>
       </c>
       <c r="AJ55">
+        <f t="shared" ref="AJ55:AJ56" si="128">(COLUMN(AI$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B56">
+        <f>(COLUMN(A$1)-1)/COUNT($C$1:$AJ$1)</f>
         <v>0</v>
       </c>
       <c r="C56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:C$1)+About!$B$37)))</f>
-        <v>1.098694263059318E-2</v>
+        <f>(COLUMN(B$1)-1)/COUNT($C$1:$AJ$1)</f>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:D$1)+About!$B$37)))</f>
-        <v>1.4774031693273055E-2</v>
+        <f t="shared" si="126"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:E$1)+About!$B$37)))</f>
-        <v>1.984030573407751E-2</v>
+        <f t="shared" si="126"/>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:F$1)+About!$B$37)))</f>
-        <v>2.6596993576865863E-2</v>
+        <f t="shared" si="126"/>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:G$1)+About!$B$37)))</f>
-        <v>3.5571189272636181E-2</v>
+        <f t="shared" si="126"/>
+        <v>0.14705882352941177</v>
       </c>
       <c r="H56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:H$1)+About!$B$37)))</f>
-        <v>4.7425873177566781E-2</v>
+        <f t="shared" si="126"/>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:I$1)+About!$B$37)))</f>
-        <v>6.2973356056996513E-2</v>
+        <f t="shared" si="126"/>
+        <v>0.20588235294117646</v>
       </c>
       <c r="J56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:J$1)+About!$B$37)))</f>
-        <v>8.317269649392238E-2</v>
+        <f t="shared" si="126"/>
+        <v>0.23529411764705882</v>
       </c>
       <c r="K56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:K$1)+About!$B$37)))</f>
-        <v>0.10909682119561293</v>
+        <f t="shared" si="126"/>
+        <v>0.26470588235294118</v>
       </c>
       <c r="L56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:L$1)+About!$B$37)))</f>
-        <v>0.14185106490048782</v>
+        <f t="shared" si="126"/>
+        <v>0.29411764705882354</v>
       </c>
       <c r="M56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:M$1)+About!$B$37)))</f>
-        <v>0.18242552380635635</v>
+        <f t="shared" si="126"/>
+        <v>0.3235294117647059</v>
       </c>
       <c r="N56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:N$1)+About!$B$37)))</f>
-        <v>0.23147521650098238</v>
+        <f t="shared" si="126"/>
+        <v>0.35294117647058826</v>
       </c>
       <c r="O56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:O$1)+About!$B$37)))</f>
-        <v>0.28905049737499605</v>
+        <f t="shared" si="126"/>
+        <v>0.38235294117647056</v>
       </c>
       <c r="P56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:P$1)+About!$B$37)))</f>
-        <v>0.35434369377420455</v>
+        <f t="shared" si="126"/>
+        <v>0.41176470588235292</v>
       </c>
       <c r="Q56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Q$1)+About!$B$37)))</f>
-        <v>0.42555748318834102</v>
+        <f t="shared" si="126"/>
+        <v>0.44117647058823528</v>
       </c>
       <c r="R56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:R$1)+About!$B$37)))</f>
+        <f t="shared" si="126"/>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="126"/>
         <v>0.5</v>
       </c>
-      <c r="S56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:S$1)+About!$B$37)))</f>
-        <v>0.57444251681165903</v>
-      </c>
       <c r="T56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:T$1)+About!$B$37)))</f>
-        <v>0.6456563062257954</v>
+        <f t="shared" si="127"/>
+        <v>0.52941176470588236</v>
       </c>
       <c r="U56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:U$1)+About!$B$37)))</f>
-        <v>0.71094950262500389</v>
+        <f t="shared" si="127"/>
+        <v>0.55882352941176472</v>
       </c>
       <c r="V56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:V$1)+About!$B$37)))</f>
-        <v>0.76852478349901754</v>
+        <f t="shared" si="127"/>
+        <v>0.58823529411764708</v>
       </c>
       <c r="W56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:W$1)+About!$B$37)))</f>
-        <v>0.81757447619364365</v>
+        <f t="shared" si="127"/>
+        <v>0.61764705882352944</v>
       </c>
       <c r="X56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:X$1)+About!$B$37)))</f>
-        <v>0.85814893509951229</v>
+        <f t="shared" si="127"/>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Y56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Y$1)+About!$B$37)))</f>
-        <v>0.89090317880438707</v>
+        <f t="shared" si="127"/>
+        <v>0.67647058823529416</v>
       </c>
       <c r="Z56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Z$1)+About!$B$37)))</f>
-        <v>0.91682730350607766</v>
+        <f t="shared" si="127"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AA56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AA$1)+About!$B$37)))</f>
-        <v>0.9370266439430035</v>
+        <f t="shared" si="127"/>
+        <v>0.73529411764705888</v>
       </c>
       <c r="AB56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AB$1)+About!$B$37)))</f>
-        <v>0.95257412682243336</v>
+        <f t="shared" si="127"/>
+        <v>0.76470588235294112</v>
       </c>
       <c r="AC56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AC$1)+About!$B$37)))</f>
-        <v>0.96442881072736386</v>
+        <f t="shared" si="127"/>
+        <v>0.79411764705882348</v>
       </c>
       <c r="AD56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AD$1)+About!$B$37)))</f>
-        <v>0.97340300642313404</v>
+        <f t="shared" si="127"/>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AE56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AE$1)+About!$B$37)))</f>
-        <v>0.98015969426592253</v>
+        <f t="shared" si="127"/>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AF56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AF$1)+About!$B$37)))</f>
-        <v>0.98522596830672693</v>
+        <f t="shared" si="127"/>
+        <v>0.88235294117647056</v>
       </c>
       <c r="AG56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AG$1)+About!$B$37)))</f>
-        <v>0.98901305736940681</v>
+        <f t="shared" si="127"/>
+        <v>0.91176470588235292</v>
       </c>
       <c r="AH56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AH$1)+About!$B$37)))</f>
-        <v>0.99183742884684012</v>
+        <f t="shared" si="127"/>
+        <v>0.94117647058823528</v>
       </c>
       <c r="AI56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AI$1)+About!$B$37)))</f>
-        <v>0.99394019850841575</v>
+        <f t="shared" si="127"/>
+        <v>0.97058823529411764</v>
       </c>
       <c r="AJ56">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AJ$1)+About!$B$37)))</f>
-        <v>0.99550372683905886</v>
+        <f t="shared" si="128"/>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:C$1)+About!$B$37)))</f>
-        <v>1.098694263059318E-2</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:D$1)+About!$B$37)))</f>
-        <v>1.4774031693273055E-2</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:E$1)+About!$B$37)))</f>
-        <v>1.984030573407751E-2</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:F$1)+About!$B$37)))</f>
-        <v>2.6596993576865863E-2</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:G$1)+About!$B$37)))</f>
-        <v>3.5571189272636181E-2</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:H$1)+About!$B$37)))</f>
-        <v>4.7425873177566781E-2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:I$1)+About!$B$37)))</f>
-        <v>6.2973356056996513E-2</v>
+        <v>1</v>
       </c>
       <c r="J57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:J$1)+About!$B$37)))</f>
-        <v>8.317269649392238E-2</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:K$1)+About!$B$37)))</f>
-        <v>0.10909682119561293</v>
+        <v>1</v>
       </c>
       <c r="L57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:L$1)+About!$B$37)))</f>
-        <v>0.14185106490048782</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:M$1)+About!$B$37)))</f>
-        <v>0.18242552380635635</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:N$1)+About!$B$37)))</f>
-        <v>0.23147521650098238</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:O$1)+About!$B$37)))</f>
-        <v>0.28905049737499605</v>
+        <v>1</v>
       </c>
       <c r="P57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:P$1)+About!$B$37)))</f>
-        <v>0.35434369377420455</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Q$1)+About!$B$37)))</f>
-        <v>0.42555748318834102</v>
+        <v>1</v>
       </c>
       <c r="R57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:R$1)+About!$B$37)))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:S$1)+About!$B$37)))</f>
-        <v>0.57444251681165903</v>
+        <v>1</v>
       </c>
       <c r="T57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:T$1)+About!$B$37)))</f>
-        <v>0.6456563062257954</v>
+        <v>1</v>
       </c>
       <c r="U57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:U$1)+About!$B$37)))</f>
-        <v>0.71094950262500389</v>
+        <v>1</v>
       </c>
       <c r="V57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:V$1)+About!$B$37)))</f>
-        <v>0.76852478349901754</v>
+        <v>1</v>
       </c>
       <c r="W57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:W$1)+About!$B$37)))</f>
-        <v>0.81757447619364365</v>
+        <v>1</v>
       </c>
       <c r="X57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:X$1)+About!$B$37)))</f>
-        <v>0.85814893509951229</v>
+        <v>1</v>
       </c>
       <c r="Y57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Y$1)+About!$B$37)))</f>
-        <v>0.89090317880438707</v>
+        <v>1</v>
       </c>
       <c r="Z57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Z$1)+About!$B$37)))</f>
-        <v>0.91682730350607766</v>
+        <v>1</v>
       </c>
       <c r="AA57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AA$1)+About!$B$37)))</f>
-        <v>0.9370266439430035</v>
+        <v>1</v>
       </c>
       <c r="AB57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AB$1)+About!$B$37)))</f>
-        <v>0.95257412682243336</v>
+        <v>1</v>
       </c>
       <c r="AC57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AC$1)+About!$B$37)))</f>
-        <v>0.96442881072736386</v>
+        <v>1</v>
       </c>
       <c r="AD57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AD$1)+About!$B$37)))</f>
-        <v>0.97340300642313404</v>
+        <v>1</v>
       </c>
       <c r="AE57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AE$1)+About!$B$37)))</f>
-        <v>0.98015969426592253</v>
+        <v>1</v>
       </c>
       <c r="AF57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AF$1)+About!$B$37)))</f>
-        <v>0.98522596830672693</v>
+        <v>1</v>
       </c>
       <c r="AG57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AG$1)+About!$B$37)))</f>
-        <v>0.98901305736940681</v>
+        <v>1</v>
       </c>
       <c r="AH57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AH$1)+About!$B$37)))</f>
-        <v>0.99183742884684012</v>
+        <v>1</v>
       </c>
       <c r="AI57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AI$1)+About!$B$37)))</f>
-        <v>0.99394019850841575</v>
+        <v>1</v>
       </c>
       <c r="AJ57">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AJ$1)+About!$B$37)))</f>
-        <v>0.99550372683905886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:C$1)+About!$B$37)))</f>
-        <v>1.098694263059318E-2</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:D$1)+About!$B$37)))</f>
-        <v>1.4774031693273055E-2</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:E$1)+About!$B$37)))</f>
-        <v>1.984030573407751E-2</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:F$1)+About!$B$37)))</f>
-        <v>2.6596993576865863E-2</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:G$1)+About!$B$37)))</f>
-        <v>3.5571189272636181E-2</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:H$1)+About!$B$37)))</f>
-        <v>4.7425873177566781E-2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:I$1)+About!$B$37)))</f>
-        <v>6.2973356056996513E-2</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:J$1)+About!$B$37)))</f>
-        <v>8.317269649392238E-2</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:K$1)+About!$B$37)))</f>
-        <v>0.10909682119561293</v>
+        <v>1</v>
       </c>
       <c r="L58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:L$1)+About!$B$37)))</f>
-        <v>0.14185106490048782</v>
+        <v>1</v>
       </c>
       <c r="M58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:M$1)+About!$B$37)))</f>
-        <v>0.18242552380635635</v>
+        <v>1</v>
       </c>
       <c r="N58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:N$1)+About!$B$37)))</f>
-        <v>0.23147521650098238</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:O$1)+About!$B$37)))</f>
-        <v>0.28905049737499605</v>
+        <v>1</v>
       </c>
       <c r="P58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:P$1)+About!$B$37)))</f>
-        <v>0.35434369377420455</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Q$1)+About!$B$37)))</f>
-        <v>0.42555748318834102</v>
+        <v>1</v>
       </c>
       <c r="R58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:R$1)+About!$B$37)))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:S$1)+About!$B$37)))</f>
-        <v>0.57444251681165903</v>
+        <v>1</v>
       </c>
       <c r="T58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:T$1)+About!$B$37)))</f>
-        <v>0.6456563062257954</v>
+        <v>1</v>
       </c>
       <c r="U58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:U$1)+About!$B$37)))</f>
-        <v>0.71094950262500389</v>
+        <v>1</v>
       </c>
       <c r="V58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:V$1)+About!$B$37)))</f>
-        <v>0.76852478349901754</v>
+        <v>1</v>
       </c>
       <c r="W58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:W$1)+About!$B$37)))</f>
-        <v>0.81757447619364365</v>
+        <v>1</v>
       </c>
       <c r="X58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:X$1)+About!$B$37)))</f>
-        <v>0.85814893509951229</v>
+        <v>1</v>
       </c>
       <c r="Y58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Y$1)+About!$B$37)))</f>
-        <v>0.89090317880438707</v>
+        <v>1</v>
       </c>
       <c r="Z58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Z$1)+About!$B$37)))</f>
-        <v>0.91682730350607766</v>
+        <v>1</v>
       </c>
       <c r="AA58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AA$1)+About!$B$37)))</f>
-        <v>0.9370266439430035</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AB$1)+About!$B$37)))</f>
-        <v>0.95257412682243336</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AC$1)+About!$B$37)))</f>
-        <v>0.96442881072736386</v>
+        <v>1</v>
       </c>
       <c r="AD58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AD$1)+About!$B$37)))</f>
-        <v>0.97340300642313404</v>
+        <v>1</v>
       </c>
       <c r="AE58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AE$1)+About!$B$37)))</f>
-        <v>0.98015969426592253</v>
+        <v>1</v>
       </c>
       <c r="AF58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AF$1)+About!$B$37)))</f>
-        <v>0.98522596830672693</v>
+        <v>1</v>
       </c>
       <c r="AG58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AG$1)+About!$B$37)))</f>
-        <v>0.98901305736940681</v>
+        <v>1</v>
       </c>
       <c r="AH58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AH$1)+About!$B$37)))</f>
-        <v>0.99183742884684012</v>
+        <v>1</v>
       </c>
       <c r="AI58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AI$1)+About!$B$37)))</f>
-        <v>0.99394019850841575</v>
+        <v>1</v>
       </c>
       <c r="AJ58">
-        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AJ$1)+About!$B$37)))</f>
-        <v>0.99550372683905886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -9556,7 +9568,7 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -9700,7 +9712,7 @@
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -9844,7 +9856,7 @@
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -9988,7 +10000,7 @@
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -10132,7 +10144,7 @@
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -10276,7 +10288,7 @@
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -10414,6 +10426,438 @@
         <v>0.99394019850841575</v>
       </c>
       <c r="AJ65">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AJ$1)+About!$B$37)))</f>
+        <v>0.99550372683905886</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:C$1)+About!$B$37)))</f>
+        <v>1.098694263059318E-2</v>
+      </c>
+      <c r="D66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:D$1)+About!$B$37)))</f>
+        <v>1.4774031693273055E-2</v>
+      </c>
+      <c r="E66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:E$1)+About!$B$37)))</f>
+        <v>1.984030573407751E-2</v>
+      </c>
+      <c r="F66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:F$1)+About!$B$37)))</f>
+        <v>2.6596993576865863E-2</v>
+      </c>
+      <c r="G66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:G$1)+About!$B$37)))</f>
+        <v>3.5571189272636181E-2</v>
+      </c>
+      <c r="H66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:H$1)+About!$B$37)))</f>
+        <v>4.7425873177566781E-2</v>
+      </c>
+      <c r="I66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:I$1)+About!$B$37)))</f>
+        <v>6.2973356056996513E-2</v>
+      </c>
+      <c r="J66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:J$1)+About!$B$37)))</f>
+        <v>8.317269649392238E-2</v>
+      </c>
+      <c r="K66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:K$1)+About!$B$37)))</f>
+        <v>0.10909682119561293</v>
+      </c>
+      <c r="L66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:L$1)+About!$B$37)))</f>
+        <v>0.14185106490048782</v>
+      </c>
+      <c r="M66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:M$1)+About!$B$37)))</f>
+        <v>0.18242552380635635</v>
+      </c>
+      <c r="N66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:N$1)+About!$B$37)))</f>
+        <v>0.23147521650098238</v>
+      </c>
+      <c r="O66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:O$1)+About!$B$37)))</f>
+        <v>0.28905049737499605</v>
+      </c>
+      <c r="P66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:P$1)+About!$B$37)))</f>
+        <v>0.35434369377420455</v>
+      </c>
+      <c r="Q66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Q$1)+About!$B$37)))</f>
+        <v>0.42555748318834102</v>
+      </c>
+      <c r="R66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:R$1)+About!$B$37)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="S66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:S$1)+About!$B$37)))</f>
+        <v>0.57444251681165903</v>
+      </c>
+      <c r="T66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:T$1)+About!$B$37)))</f>
+        <v>0.6456563062257954</v>
+      </c>
+      <c r="U66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:U$1)+About!$B$37)))</f>
+        <v>0.71094950262500389</v>
+      </c>
+      <c r="V66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:V$1)+About!$B$37)))</f>
+        <v>0.76852478349901754</v>
+      </c>
+      <c r="W66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:W$1)+About!$B$37)))</f>
+        <v>0.81757447619364365</v>
+      </c>
+      <c r="X66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:X$1)+About!$B$37)))</f>
+        <v>0.85814893509951229</v>
+      </c>
+      <c r="Y66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Y$1)+About!$B$37)))</f>
+        <v>0.89090317880438707</v>
+      </c>
+      <c r="Z66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Z$1)+About!$B$37)))</f>
+        <v>0.91682730350607766</v>
+      </c>
+      <c r="AA66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AA$1)+About!$B$37)))</f>
+        <v>0.9370266439430035</v>
+      </c>
+      <c r="AB66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AB$1)+About!$B$37)))</f>
+        <v>0.95257412682243336</v>
+      </c>
+      <c r="AC66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AC$1)+About!$B$37)))</f>
+        <v>0.96442881072736386</v>
+      </c>
+      <c r="AD66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AD$1)+About!$B$37)))</f>
+        <v>0.97340300642313404</v>
+      </c>
+      <c r="AE66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AE$1)+About!$B$37)))</f>
+        <v>0.98015969426592253</v>
+      </c>
+      <c r="AF66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AF$1)+About!$B$37)))</f>
+        <v>0.98522596830672693</v>
+      </c>
+      <c r="AG66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AG$1)+About!$B$37)))</f>
+        <v>0.98901305736940681</v>
+      </c>
+      <c r="AH66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AH$1)+About!$B$37)))</f>
+        <v>0.99183742884684012</v>
+      </c>
+      <c r="AI66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AI$1)+About!$B$37)))</f>
+        <v>0.99394019850841575</v>
+      </c>
+      <c r="AJ66">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AJ$1)+About!$B$37)))</f>
+        <v>0.99550372683905886</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:C$1)+About!$B$37)))</f>
+        <v>1.098694263059318E-2</v>
+      </c>
+      <c r="D67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:D$1)+About!$B$37)))</f>
+        <v>1.4774031693273055E-2</v>
+      </c>
+      <c r="E67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:E$1)+About!$B$37)))</f>
+        <v>1.984030573407751E-2</v>
+      </c>
+      <c r="F67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:F$1)+About!$B$37)))</f>
+        <v>2.6596993576865863E-2</v>
+      </c>
+      <c r="G67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:G$1)+About!$B$37)))</f>
+        <v>3.5571189272636181E-2</v>
+      </c>
+      <c r="H67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:H$1)+About!$B$37)))</f>
+        <v>4.7425873177566781E-2</v>
+      </c>
+      <c r="I67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:I$1)+About!$B$37)))</f>
+        <v>6.2973356056996513E-2</v>
+      </c>
+      <c r="J67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:J$1)+About!$B$37)))</f>
+        <v>8.317269649392238E-2</v>
+      </c>
+      <c r="K67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:K$1)+About!$B$37)))</f>
+        <v>0.10909682119561293</v>
+      </c>
+      <c r="L67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:L$1)+About!$B$37)))</f>
+        <v>0.14185106490048782</v>
+      </c>
+      <c r="M67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:M$1)+About!$B$37)))</f>
+        <v>0.18242552380635635</v>
+      </c>
+      <c r="N67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:N$1)+About!$B$37)))</f>
+        <v>0.23147521650098238</v>
+      </c>
+      <c r="O67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:O$1)+About!$B$37)))</f>
+        <v>0.28905049737499605</v>
+      </c>
+      <c r="P67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:P$1)+About!$B$37)))</f>
+        <v>0.35434369377420455</v>
+      </c>
+      <c r="Q67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Q$1)+About!$B$37)))</f>
+        <v>0.42555748318834102</v>
+      </c>
+      <c r="R67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:R$1)+About!$B$37)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="S67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:S$1)+About!$B$37)))</f>
+        <v>0.57444251681165903</v>
+      </c>
+      <c r="T67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:T$1)+About!$B$37)))</f>
+        <v>0.6456563062257954</v>
+      </c>
+      <c r="U67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:U$1)+About!$B$37)))</f>
+        <v>0.71094950262500389</v>
+      </c>
+      <c r="V67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:V$1)+About!$B$37)))</f>
+        <v>0.76852478349901754</v>
+      </c>
+      <c r="W67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:W$1)+About!$B$37)))</f>
+        <v>0.81757447619364365</v>
+      </c>
+      <c r="X67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:X$1)+About!$B$37)))</f>
+        <v>0.85814893509951229</v>
+      </c>
+      <c r="Y67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Y$1)+About!$B$37)))</f>
+        <v>0.89090317880438707</v>
+      </c>
+      <c r="Z67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Z$1)+About!$B$37)))</f>
+        <v>0.91682730350607766</v>
+      </c>
+      <c r="AA67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AA$1)+About!$B$37)))</f>
+        <v>0.9370266439430035</v>
+      </c>
+      <c r="AB67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AB$1)+About!$B$37)))</f>
+        <v>0.95257412682243336</v>
+      </c>
+      <c r="AC67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AC$1)+About!$B$37)))</f>
+        <v>0.96442881072736386</v>
+      </c>
+      <c r="AD67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AD$1)+About!$B$37)))</f>
+        <v>0.97340300642313404</v>
+      </c>
+      <c r="AE67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AE$1)+About!$B$37)))</f>
+        <v>0.98015969426592253</v>
+      </c>
+      <c r="AF67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AF$1)+About!$B$37)))</f>
+        <v>0.98522596830672693</v>
+      </c>
+      <c r="AG67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AG$1)+About!$B$37)))</f>
+        <v>0.98901305736940681</v>
+      </c>
+      <c r="AH67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AH$1)+About!$B$37)))</f>
+        <v>0.99183742884684012</v>
+      </c>
+      <c r="AI67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AI$1)+About!$B$37)))</f>
+        <v>0.99394019850841575</v>
+      </c>
+      <c r="AJ67">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AJ$1)+About!$B$37)))</f>
+        <v>0.99550372683905886</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:C$1)+About!$B$37)))</f>
+        <v>1.098694263059318E-2</v>
+      </c>
+      <c r="D68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:D$1)+About!$B$37)))</f>
+        <v>1.4774031693273055E-2</v>
+      </c>
+      <c r="E68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:E$1)+About!$B$37)))</f>
+        <v>1.984030573407751E-2</v>
+      </c>
+      <c r="F68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:F$1)+About!$B$37)))</f>
+        <v>2.6596993576865863E-2</v>
+      </c>
+      <c r="G68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:G$1)+About!$B$37)))</f>
+        <v>3.5571189272636181E-2</v>
+      </c>
+      <c r="H68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:H$1)+About!$B$37)))</f>
+        <v>4.7425873177566781E-2</v>
+      </c>
+      <c r="I68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:I$1)+About!$B$37)))</f>
+        <v>6.2973356056996513E-2</v>
+      </c>
+      <c r="J68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:J$1)+About!$B$37)))</f>
+        <v>8.317269649392238E-2</v>
+      </c>
+      <c r="K68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:K$1)+About!$B$37)))</f>
+        <v>0.10909682119561293</v>
+      </c>
+      <c r="L68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:L$1)+About!$B$37)))</f>
+        <v>0.14185106490048782</v>
+      </c>
+      <c r="M68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:M$1)+About!$B$37)))</f>
+        <v>0.18242552380635635</v>
+      </c>
+      <c r="N68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:N$1)+About!$B$37)))</f>
+        <v>0.23147521650098238</v>
+      </c>
+      <c r="O68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:O$1)+About!$B$37)))</f>
+        <v>0.28905049737499605</v>
+      </c>
+      <c r="P68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:P$1)+About!$B$37)))</f>
+        <v>0.35434369377420455</v>
+      </c>
+      <c r="Q68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Q$1)+About!$B$37)))</f>
+        <v>0.42555748318834102</v>
+      </c>
+      <c r="R68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:R$1)+About!$B$37)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="S68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:S$1)+About!$B$37)))</f>
+        <v>0.57444251681165903</v>
+      </c>
+      <c r="T68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:T$1)+About!$B$37)))</f>
+        <v>0.6456563062257954</v>
+      </c>
+      <c r="U68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:U$1)+About!$B$37)))</f>
+        <v>0.71094950262500389</v>
+      </c>
+      <c r="V68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:V$1)+About!$B$37)))</f>
+        <v>0.76852478349901754</v>
+      </c>
+      <c r="W68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:W$1)+About!$B$37)))</f>
+        <v>0.81757447619364365</v>
+      </c>
+      <c r="X68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:X$1)+About!$B$37)))</f>
+        <v>0.85814893509951229</v>
+      </c>
+      <c r="Y68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Y$1)+About!$B$37)))</f>
+        <v>0.89090317880438707</v>
+      </c>
+      <c r="Z68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:Z$1)+About!$B$37)))</f>
+        <v>0.91682730350607766</v>
+      </c>
+      <c r="AA68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AA$1)+About!$B$37)))</f>
+        <v>0.9370266439430035</v>
+      </c>
+      <c r="AB68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AB$1)+About!$B$37)))</f>
+        <v>0.95257412682243336</v>
+      </c>
+      <c r="AC68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AC$1)+About!$B$37)))</f>
+        <v>0.96442881072736386</v>
+      </c>
+      <c r="AD68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AD$1)+About!$B$37)))</f>
+        <v>0.97340300642313404</v>
+      </c>
+      <c r="AE68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AE$1)+About!$B$37)))</f>
+        <v>0.98015969426592253</v>
+      </c>
+      <c r="AF68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AF$1)+About!$B$37)))</f>
+        <v>0.98522596830672693</v>
+      </c>
+      <c r="AG68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AG$1)+About!$B$37)))</f>
+        <v>0.98901305736940681</v>
+      </c>
+      <c r="AH68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AH$1)+About!$B$37)))</f>
+        <v>0.99183742884684012</v>
+      </c>
+      <c r="AI68">
+        <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AI$1)+About!$B$37)))</f>
+        <v>0.99394019850841575</v>
+      </c>
+      <c r="AJ68">
         <f>About!$B$35/(1+EXP(About!$B$36*(COUNT($B$1:AJ$1)+About!$B$37)))</f>
         <v>0.99550372683905886</v>
       </c>
